--- a/matlab/prawn_export_v1/new_info/Nearshore prawns.xlsx
+++ b/matlab/prawn_export_v1/new_info/Nearshore prawns.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr date1904="1" showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20071186\OneDrive - Murdoch University\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SCERM\matlab\prawn_export_v1\new_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051691E4-1C87-4903-A6BB-96FB1BE4DBED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9220" tabRatio="556"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$G$941</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$H$941</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -208,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3464,28 +3465,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H941"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E714" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C469" sqref="C469"/>
       <selection pane="topRight" activeCell="C469" sqref="C469"/>
       <selection pane="bottomLeft" activeCell="C469" sqref="C469"/>
-      <selection pane="bottomRight" activeCell="F720" sqref="F720"/>
+      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.23046875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5.3828125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="5.23046875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.69140625" style="21"/>
-    <col min="9" max="16384" width="8.69140625" style="10"/>
+    <col min="1" max="1" width="9.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="5.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="5.25" style="7" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="21"/>
+    <col min="9" max="16384" width="8.75" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -3508,7 +3510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>40087</v>
       </c>
@@ -3531,7 +3533,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>40087</v>
       </c>
@@ -3554,7 +3556,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>40087</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>40087</v>
       </c>
@@ -3600,7 +3602,7 @@
         <v>1.47</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>40087</v>
       </c>
@@ -3623,7 +3625,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>40087</v>
       </c>
@@ -3646,7 +3648,7 @@
         <v>3.11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>40087</v>
       </c>
@@ -3669,7 +3671,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>40087</v>
       </c>
@@ -3692,7 +3694,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>40088</v>
       </c>
@@ -3715,7 +3717,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>40088</v>
       </c>
@@ -3738,7 +3740,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>40088</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>4.26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>40088</v>
       </c>
@@ -3784,7 +3786,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>40088</v>
       </c>
@@ -3807,7 +3809,7 @@
         <v>5.07</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>40088</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>6.27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>40089</v>
       </c>
@@ -3853,7 +3855,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>40089</v>
       </c>
@@ -3876,7 +3878,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>40089</v>
       </c>
@@ -3899,7 +3901,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>40089</v>
       </c>
@@ -3922,7 +3924,7 @@
         <v>7.68</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>40089</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>31.75</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>40089</v>
       </c>
@@ -3968,7 +3970,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>40116</v>
       </c>
@@ -3991,7 +3993,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>40116</v>
       </c>
@@ -4014,7 +4016,7 @@
         <v>15.37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>40116</v>
       </c>
@@ -4037,7 +4039,7 @@
         <v>16.77</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>40116</v>
       </c>
@@ -4060,7 +4062,7 @@
         <v>18.87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>40116</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>40116</v>
       </c>
@@ -4106,7 +4108,7 @@
         <v>21.13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>40116</v>
       </c>
@@ -4129,7 +4131,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>40117</v>
       </c>
@@ -4152,7 +4154,7 @@
         <v>21.69</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>40120</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>10.11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>40120</v>
       </c>
@@ -4198,7 +4200,7 @@
         <v>12.98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>40120</v>
       </c>
@@ -4221,7 +4223,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>40120</v>
       </c>
@@ -4244,7 +4246,7 @@
         <v>23.51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>40120</v>
       </c>
@@ -4267,7 +4269,7 @@
         <v>24.6</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>40120</v>
       </c>
@@ -4290,7 +4292,7 @@
         <v>25.24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>40121</v>
       </c>
@@ -4313,7 +4315,7 @@
         <v>24.82</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>40121</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>24.64</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>40121</v>
       </c>
@@ -4359,7 +4361,7 @@
         <v>27.32</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>40121</v>
       </c>
@@ -4382,7 +4384,7 @@
         <v>29.45</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>40121</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>26.69</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>40121</v>
       </c>
@@ -4428,7 +4430,7 @@
         <v>28.24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>40134</v>
       </c>
@@ -4451,7 +4453,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>40134</v>
       </c>
@@ -4474,7 +4476,7 @@
         <v>27.71</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>40134</v>
       </c>
@@ -4497,7 +4499,7 @@
         <v>28.11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>40134</v>
       </c>
@@ -4520,7 +4522,7 @@
         <v>28.66</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>40134</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>28.68</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>40134</v>
       </c>
@@ -4566,7 +4568,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>40135</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>27.58</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>40135</v>
       </c>
@@ -4612,7 +4614,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>40135</v>
       </c>
@@ -4635,7 +4637,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>40135</v>
       </c>
@@ -4658,7 +4660,7 @@
         <v>27.23</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>40136</v>
       </c>
@@ -4681,7 +4683,7 @@
         <v>34.42</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>40136</v>
       </c>
@@ -4704,7 +4706,7 @@
         <v>33.68</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>40136</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>40136</v>
       </c>
@@ -4750,7 +4752,7 @@
         <v>27.01</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>40136</v>
       </c>
@@ -4773,7 +4775,7 @@
         <v>19.309999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>40136</v>
       </c>
@@ -4796,7 +4798,7 @@
         <v>13.42</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>40130</v>
       </c>
@@ -4819,7 +4821,7 @@
         <v>22.82</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>40130</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>40130</v>
       </c>
@@ -4865,7 +4867,7 @@
         <v>23.08</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>40130</v>
       </c>
@@ -4888,7 +4890,7 @@
         <v>25.77</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>40146</v>
       </c>
@@ -4911,7 +4913,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>40146</v>
       </c>
@@ -4934,7 +4936,7 @@
         <v>36.700000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>40146</v>
       </c>
@@ -4957,7 +4959,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>40146</v>
       </c>
@@ -4980,9 +4982,9 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>405393</v>
+        <v>40151</v>
       </c>
       <c r="B66" s="23" t="s">
         <v>38</v>
@@ -5003,7 +5005,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>40146</v>
       </c>
@@ -5026,7 +5028,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>40146</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>405393</v>
       </c>
@@ -5072,7 +5074,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>405393</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>28.52</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>405393</v>
       </c>
@@ -5118,7 +5120,7 @@
         <v>23.42</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>405393</v>
       </c>
@@ -5141,7 +5143,7 @@
         <v>23.34</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>405393</v>
       </c>
@@ -5164,7 +5166,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>40145</v>
       </c>
@@ -5187,7 +5189,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>40145</v>
       </c>
@@ -5210,7 +5212,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>40145</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>40145</v>
       </c>
@@ -5256,7 +5258,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>40145</v>
       </c>
@@ -5279,7 +5281,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>40145</v>
       </c>
@@ -5302,7 +5304,7 @@
         <v>25.4</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>40145</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>40145</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>25.9</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>40184</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>35.36</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>40184</v>
       </c>
@@ -5394,7 +5396,7 @@
         <v>35.36</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>40184</v>
       </c>
@@ -5417,7 +5419,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>40184</v>
       </c>
@@ -5440,7 +5442,7 @@
         <v>36.76</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>40183</v>
       </c>
@@ -5463,7 +5465,7 @@
         <v>36.17</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>40183</v>
       </c>
@@ -5486,7 +5488,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>40183</v>
       </c>
@@ -5509,7 +5511,7 @@
         <v>36.229999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>40183</v>
       </c>
@@ -5532,7 +5534,7 @@
         <v>34.07</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>40183</v>
       </c>
@@ -5555,7 +5557,7 @@
         <v>33.630000000000003</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>40183</v>
       </c>
@@ -5578,7 +5580,7 @@
         <v>32.94</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>40183</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>40183</v>
       </c>
@@ -5624,7 +5626,7 @@
         <v>25.46</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>40185</v>
       </c>
@@ -5647,7 +5649,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>40185</v>
       </c>
@@ -5670,7 +5672,7 @@
         <v>35.799999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>40185</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>35.4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>40185</v>
       </c>
@@ -5716,7 +5718,7 @@
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>40185</v>
       </c>
@@ -5739,7 +5741,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>40185</v>
       </c>
@@ -5762,7 +5764,7 @@
         <v>32.11</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>40185</v>
       </c>
@@ -5785,7 +5787,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>40185</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>40206</v>
       </c>
@@ -5831,7 +5833,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>40206</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>40206</v>
       </c>
@@ -5877,7 +5879,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>40206</v>
       </c>
@@ -5900,7 +5902,7 @@
         <v>25.23</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>40206</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>35.049999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>40206</v>
       </c>
@@ -5946,7 +5948,7 @@
         <v>34.97</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>40206</v>
       </c>
@@ -5969,7 +5971,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>40206</v>
       </c>
@@ -5992,7 +5994,7 @@
         <v>34.450000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>40208</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>35.229999999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>40208</v>
       </c>
@@ -6038,7 +6040,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>40208</v>
       </c>
@@ -6061,7 +6063,7 @@
         <v>31.54</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>40208</v>
       </c>
@@ -6084,7 +6086,7 @@
         <v>27.72</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>40208</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>40208</v>
       </c>
@@ -6130,7 +6132,7 @@
         <v>35.47</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>40207</v>
       </c>
@@ -6153,7 +6155,7 @@
         <v>35.380000000000003</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>40207</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>35.450000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>40207</v>
       </c>
@@ -6199,7 +6201,7 @@
         <v>35.65</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>40207</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>40207</v>
       </c>
@@ -6245,7 +6247,7 @@
         <v>35.93</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>40207</v>
       </c>
@@ -6268,7 +6270,7 @@
         <v>35.78</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>40221</v>
       </c>
@@ -6291,7 +6293,7 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>40221</v>
       </c>
@@ -6314,7 +6316,7 @@
         <v>36.07</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>40222</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>40222</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>40222</v>
       </c>
@@ -6383,7 +6385,7 @@
         <v>28.19</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>40222</v>
       </c>
@@ -6406,7 +6408,7 @@
         <v>32.14</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>40222</v>
       </c>
@@ -6429,7 +6431,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>40222</v>
       </c>
@@ -6452,7 +6454,7 @@
         <v>35.99</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>40221</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>36.07</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>40221</v>
       </c>
@@ -6498,7 +6500,7 @@
         <v>36.130000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>40221</v>
       </c>
@@ -6521,7 +6523,7 @@
         <v>36.39</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>40221</v>
       </c>
@@ -6544,7 +6546,7 @@
         <v>36.39</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>40227</v>
       </c>
@@ -6567,7 +6569,7 @@
         <v>36.03</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>40227</v>
       </c>
@@ -6590,7 +6592,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>40227</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>36.270000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>40227</v>
       </c>
@@ -6636,7 +6638,7 @@
         <v>36.369999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>40227</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>40227</v>
       </c>
@@ -6682,7 +6684,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>40227</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>40227</v>
       </c>
@@ -6728,7 +6730,7 @@
         <v>35.270000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>40238</v>
       </c>
@@ -6751,7 +6753,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>40238</v>
       </c>
@@ -6774,7 +6776,7 @@
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>40238</v>
       </c>
@@ -6797,7 +6799,7 @@
         <v>37.299999999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>40238</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>38.4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>40238</v>
       </c>
@@ -6843,7 +6845,7 @@
         <v>36.81</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>40238</v>
       </c>
@@ -6866,7 +6868,7 @@
         <v>36.81</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>40238</v>
       </c>
@@ -6889,7 +6891,7 @@
         <v>36.81</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>40238</v>
       </c>
@@ -6912,7 +6914,7 @@
         <v>37.1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>40240</v>
       </c>
@@ -6935,7 +6937,7 @@
         <v>30.03</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>40240</v>
       </c>
@@ -6958,7 +6960,7 @@
         <v>33.85</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>40240</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>40240</v>
       </c>
@@ -7004,7 +7006,7 @@
         <v>37.14</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>40240</v>
       </c>
@@ -7027,7 +7029,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>40240</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>40236</v>
       </c>
@@ -7073,7 +7075,7 @@
         <v>35.869999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>40236</v>
       </c>
@@ -7096,7 +7098,7 @@
         <v>37.049999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>40236</v>
       </c>
@@ -7119,7 +7121,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>40236</v>
       </c>
@@ -7142,7 +7144,7 @@
         <v>36.86</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>40236</v>
       </c>
@@ -7165,7 +7167,7 @@
         <v>36.950000000000003</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>40236</v>
       </c>
@@ -7188,7 +7190,7 @@
         <v>36.51</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>40264</v>
       </c>
@@ -7211,7 +7213,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>40264</v>
       </c>
@@ -7234,7 +7236,7 @@
         <v>38.74</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>40264</v>
       </c>
@@ -7257,7 +7259,7 @@
         <v>38.630000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>40264</v>
       </c>
@@ -7280,7 +7282,7 @@
         <v>38.44</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>40264</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>38.14</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>40264</v>
       </c>
@@ -7326,7 +7328,7 @@
         <v>37.94</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>40264</v>
       </c>
@@ -7349,7 +7351,7 @@
         <v>37.79</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>40264</v>
       </c>
@@ -7372,7 +7374,7 @@
         <v>37.97</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>40268</v>
       </c>
@@ -7395,7 +7397,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>40268</v>
       </c>
@@ -7418,7 +7420,7 @@
         <v>37.479999999999997</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>40268</v>
       </c>
@@ -7441,7 +7443,7 @@
         <v>37.590000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>40268</v>
       </c>
@@ -7464,7 +7466,7 @@
         <v>36.409999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>40268</v>
       </c>
@@ -7487,7 +7489,7 @@
         <v>34.840000000000003</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>40268</v>
       </c>
@@ -7510,7 +7512,7 @@
         <v>31.74</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>40267</v>
       </c>
@@ -7533,7 +7535,7 @@
         <v>37.44</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>40267</v>
       </c>
@@ -7556,7 +7558,7 @@
         <v>37.409999999999997</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>40267</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>37.19</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>40267</v>
       </c>
@@ -7602,7 +7604,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>40267</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>36.78</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>40267</v>
       </c>
@@ -7648,7 +7650,7 @@
         <v>37.270000000000003</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>40295</v>
       </c>
@@ -7671,7 +7673,7 @@
         <v>31.41</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>40295</v>
       </c>
@@ -7694,7 +7696,7 @@
         <v>31.41</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>40295</v>
       </c>
@@ -7717,7 +7719,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>40295</v>
       </c>
@@ -7740,7 +7742,7 @@
         <v>36.32</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>40295</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>34.659999999999997</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>40295</v>
       </c>
@@ -7786,7 +7788,7 @@
         <v>36.04</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>40295</v>
       </c>
@@ -7809,7 +7811,7 @@
         <v>36.119999999999997</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>40295</v>
       </c>
@@ -7832,7 +7834,7 @@
         <v>36.53</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>40296</v>
       </c>
@@ -7855,7 +7857,7 @@
         <v>37.32</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>40296</v>
       </c>
@@ -7878,7 +7880,7 @@
         <v>37.26</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>40296</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>36.58</v>
       </c>
     </row>
-    <row r="193" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>40296</v>
       </c>
@@ -7924,7 +7926,7 @@
         <v>35.54</v>
       </c>
     </row>
-    <row r="194" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>40296</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>33.82</v>
       </c>
     </row>
-    <row r="195" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>40296</v>
       </c>
@@ -7970,7 +7972,7 @@
         <v>31.37</v>
       </c>
     </row>
-    <row r="196" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>40297</v>
       </c>
@@ -7993,7 +7995,7 @@
         <v>37.01</v>
       </c>
     </row>
-    <row r="197" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>40297</v>
       </c>
@@ -8016,7 +8018,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="198" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>40297</v>
       </c>
@@ -8039,7 +8041,7 @@
         <v>37.08</v>
       </c>
     </row>
-    <row r="199" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>40297</v>
       </c>
@@ -8062,7 +8064,7 @@
         <v>37.15</v>
       </c>
     </row>
-    <row r="200" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>40297</v>
       </c>
@@ -8085,7 +8087,7 @@
         <v>37.03</v>
       </c>
     </row>
-    <row r="201" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>40297</v>
       </c>
@@ -8108,7 +8110,7 @@
         <v>37.21</v>
       </c>
     </row>
-    <row r="202" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>40309</v>
       </c>
@@ -8131,7 +8133,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="203" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>40309</v>
       </c>
@@ -8154,7 +8156,7 @@
         <v>15.21</v>
       </c>
     </row>
-    <row r="204" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>40309</v>
       </c>
@@ -8177,7 +8179,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="205" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>40309</v>
       </c>
@@ -8200,7 +8202,7 @@
         <v>20.55</v>
       </c>
     </row>
-    <row r="206" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>40309</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>33.76</v>
       </c>
     </row>
-    <row r="207" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>40309</v>
       </c>
@@ -8246,7 +8248,7 @@
         <v>33.11</v>
       </c>
     </row>
-    <row r="208" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>40309</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>40309</v>
       </c>
@@ -8292,7 +8294,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>40310</v>
       </c>
@@ -8315,7 +8317,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>40310</v>
       </c>
@@ -8338,7 +8340,7 @@
         <v>33.43</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>40310</v>
       </c>
@@ -8361,7 +8363,7 @@
         <v>32.96</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>40310</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>40310</v>
       </c>
@@ -8407,7 +8409,7 @@
         <v>35.01</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>40310</v>
       </c>
@@ -8430,7 +8432,7 @@
         <v>33.880000000000003</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>40313</v>
       </c>
@@ -8453,7 +8455,7 @@
         <v>35.590000000000003</v>
       </c>
     </row>
-    <row r="217" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>40313</v>
       </c>
@@ -8476,7 +8478,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>40313</v>
       </c>
@@ -8499,7 +8501,7 @@
         <v>36.17</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>40313</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>40313</v>
       </c>
@@ -8545,7 +8547,7 @@
         <v>35.26</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>40313</v>
       </c>
@@ -8568,7 +8570,7 @@
         <v>36.4</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>40325</v>
       </c>
@@ -8591,7 +8593,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="223" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>40325</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>1.73</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>40325</v>
       </c>
@@ -8637,7 +8639,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>40325</v>
       </c>
@@ -8660,7 +8662,7 @@
         <v>16.670000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>40325</v>
       </c>
@@ -8683,7 +8685,7 @@
         <v>31.46</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>40325</v>
       </c>
@@ -8706,7 +8708,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>40325</v>
       </c>
@@ -8729,7 +8731,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>40325</v>
       </c>
@@ -8752,7 +8754,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>40326</v>
       </c>
@@ -8775,7 +8777,7 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>40326</v>
       </c>
@@ -8798,7 +8800,7 @@
         <v>22.64</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>40326</v>
       </c>
@@ -8821,7 +8823,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="233" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>40326</v>
       </c>
@@ -8844,7 +8846,7 @@
         <v>28.51</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>40326</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>33.51</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>40326</v>
       </c>
@@ -8890,7 +8892,7 @@
         <v>29.08</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>40327</v>
       </c>
@@ -8913,7 +8915,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="237" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>40327</v>
       </c>
@@ -8936,7 +8938,7 @@
         <v>31.01</v>
       </c>
     </row>
-    <row r="238" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>40327</v>
       </c>
@@ -8959,7 +8961,7 @@
         <v>33.64</v>
       </c>
     </row>
-    <row r="239" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>40327</v>
       </c>
@@ -8982,7 +8984,7 @@
         <v>34.479999999999997</v>
       </c>
     </row>
-    <row r="240" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>40327</v>
       </c>
@@ -9005,7 +9007,7 @@
         <v>34.479999999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>40327</v>
       </c>
@@ -9028,7 +9030,7 @@
         <v>34.06</v>
       </c>
     </row>
-    <row r="242" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>40352</v>
       </c>
@@ -9051,7 +9053,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="243" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>40352</v>
       </c>
@@ -9074,7 +9076,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="244" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>40352</v>
       </c>
@@ -9097,7 +9099,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="245" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>40352</v>
       </c>
@@ -9120,7 +9122,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="246" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>40352</v>
       </c>
@@ -9143,7 +9145,7 @@
         <v>9.5399999999999991</v>
       </c>
     </row>
-    <row r="247" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>40352</v>
       </c>
@@ -9166,7 +9168,7 @@
         <v>27.26</v>
       </c>
     </row>
-    <row r="248" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>40352</v>
       </c>
@@ -9189,7 +9191,7 @@
         <v>14.65</v>
       </c>
     </row>
-    <row r="249" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>40352</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>24.3</v>
       </c>
     </row>
-    <row r="250" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>40358</v>
       </c>
@@ -9235,7 +9237,7 @@
         <v>9.52</v>
       </c>
     </row>
-    <row r="251" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>40358</v>
       </c>
@@ -9258,7 +9260,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="252" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>40358</v>
       </c>
@@ -9281,7 +9283,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="253" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>40358</v>
       </c>
@@ -9304,7 +9306,7 @@
         <v>24.66</v>
       </c>
     </row>
-    <row r="254" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>40358</v>
       </c>
@@ -9327,7 +9329,7 @@
         <v>24.97</v>
       </c>
     </row>
-    <row r="255" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>40358</v>
       </c>
@@ -9350,7 +9352,7 @@
         <v>22.85</v>
       </c>
     </row>
-    <row r="256" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>40351</v>
       </c>
@@ -9373,7 +9375,7 @@
         <v>28.28</v>
       </c>
     </row>
-    <row r="257" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>40351</v>
       </c>
@@ -9396,7 +9398,7 @@
         <v>26.09</v>
       </c>
     </row>
-    <row r="258" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>40351</v>
       </c>
@@ -9419,7 +9421,7 @@
         <v>28.97</v>
       </c>
     </row>
-    <row r="259" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>40351</v>
       </c>
@@ -9442,7 +9444,7 @@
         <v>34.54</v>
       </c>
     </row>
-    <row r="260" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>40351</v>
       </c>
@@ -9465,7 +9467,7 @@
         <v>34.54</v>
       </c>
     </row>
-    <row r="261" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>40351</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>28.39</v>
       </c>
     </row>
-    <row r="262" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>40388</v>
       </c>
@@ -9511,7 +9513,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="263" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>40388</v>
       </c>
@@ -9534,7 +9536,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="264" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>40388</v>
       </c>
@@ -9557,7 +9559,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="265" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>40388</v>
       </c>
@@ -9580,7 +9582,7 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="266" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>40388</v>
       </c>
@@ -9603,7 +9605,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="267" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>40388</v>
       </c>
@@ -9626,7 +9628,7 @@
         <v>5.89</v>
       </c>
     </row>
-    <row r="268" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>40388</v>
       </c>
@@ -9649,7 +9651,7 @@
         <v>7.29</v>
       </c>
     </row>
-    <row r="269" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>40388</v>
       </c>
@@ -9672,7 +9674,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="270" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>40387</v>
       </c>
@@ -9695,7 +9697,7 @@
         <v>4.8099999999999996</v>
       </c>
     </row>
-    <row r="271" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>40387</v>
       </c>
@@ -9718,7 +9720,7 @@
         <v>4.5199999999999996</v>
       </c>
     </row>
-    <row r="272" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>40387</v>
       </c>
@@ -9741,7 +9743,7 @@
         <v>5.42</v>
       </c>
     </row>
-    <row r="273" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>40387</v>
       </c>
@@ -9764,7 +9766,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="274" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>40387</v>
       </c>
@@ -9787,7 +9789,7 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="275" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>40387</v>
       </c>
@@ -9810,7 +9812,7 @@
         <v>14.93</v>
       </c>
     </row>
-    <row r="276" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>40386</v>
       </c>
@@ -9833,7 +9835,7 @@
         <v>12.78</v>
       </c>
     </row>
-    <row r="277" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>40386</v>
       </c>
@@ -9856,7 +9858,7 @@
         <v>12.91</v>
       </c>
     </row>
-    <row r="278" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>40386</v>
       </c>
@@ -9879,7 +9881,7 @@
         <v>19.62</v>
       </c>
     </row>
-    <row r="279" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>40386</v>
       </c>
@@ -9902,7 +9904,7 @@
         <v>33.979999999999997</v>
       </c>
     </row>
-    <row r="280" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>40386</v>
       </c>
@@ -9925,7 +9927,7 @@
         <v>33.979999999999997</v>
       </c>
     </row>
-    <row r="281" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>40386</v>
       </c>
@@ -9948,7 +9950,7 @@
         <v>20.059999999999999</v>
       </c>
     </row>
-    <row r="282" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>40402</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="283" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>40402</v>
       </c>
@@ -9994,7 +9996,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="284" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>40402</v>
       </c>
@@ -10017,7 +10019,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="285" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>40402</v>
       </c>
@@ -10040,7 +10042,7 @@
         <v>17.73</v>
       </c>
     </row>
-    <row r="286" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>40402</v>
       </c>
@@ -10063,7 +10065,7 @@
         <v>20.260000000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>40402</v>
       </c>
@@ -10086,7 +10088,7 @@
         <v>19.940000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>40402</v>
       </c>
@@ -10109,7 +10111,7 @@
         <v>19.05</v>
       </c>
     </row>
-    <row r="289" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>40402</v>
       </c>
@@ -10132,7 +10134,7 @@
         <v>19.72</v>
       </c>
     </row>
-    <row r="290" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>40400</v>
       </c>
@@ -10155,7 +10157,7 @@
         <v>6.56</v>
       </c>
     </row>
-    <row r="291" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>40400</v>
       </c>
@@ -10178,7 +10180,7 @@
         <v>11.58</v>
       </c>
     </row>
-    <row r="292" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>40400</v>
       </c>
@@ -10201,7 +10203,7 @@
         <v>21.21</v>
       </c>
     </row>
-    <row r="293" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>40400</v>
       </c>
@@ -10224,7 +10226,7 @@
         <v>18.559999999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>40400</v>
       </c>
@@ -10247,7 +10249,7 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="295" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>40400</v>
       </c>
@@ -10270,7 +10272,7 @@
         <v>26.62</v>
       </c>
     </row>
-    <row r="296" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>40401</v>
       </c>
@@ -10293,7 +10295,7 @@
         <v>25.98</v>
       </c>
     </row>
-    <row r="297" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>40401</v>
       </c>
@@ -10316,7 +10318,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="298" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>40401</v>
       </c>
@@ -10339,7 +10341,7 @@
         <v>19.48</v>
       </c>
     </row>
-    <row r="299" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>40401</v>
       </c>
@@ -10362,7 +10364,7 @@
         <v>34.56</v>
       </c>
     </row>
-    <row r="300" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>40401</v>
       </c>
@@ -10385,7 +10387,7 @@
         <v>34.56</v>
       </c>
     </row>
-    <row r="301" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>40401</v>
       </c>
@@ -10408,7 +10410,7 @@
         <v>19.23</v>
       </c>
     </row>
-    <row r="302" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>40415</v>
       </c>
@@ -10431,7 +10433,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="303" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>40415</v>
       </c>
@@ -10454,7 +10456,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="304" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>40415</v>
       </c>
@@ -10477,7 +10479,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="305" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>40415</v>
       </c>
@@ -10500,7 +10502,7 @@
         <v>9.64</v>
       </c>
     </row>
-    <row r="306" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>40415</v>
       </c>
@@ -10523,7 +10525,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="307" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>40415</v>
       </c>
@@ -10546,7 +10548,7 @@
         <v>9.49</v>
       </c>
     </row>
-    <row r="308" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>40415</v>
       </c>
@@ -10569,7 +10571,7 @@
         <v>12.61</v>
       </c>
     </row>
-    <row r="309" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>40415</v>
       </c>
@@ -10592,7 +10594,7 @@
         <v>16.36</v>
       </c>
     </row>
-    <row r="310" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>40416</v>
       </c>
@@ -10615,7 +10617,7 @@
         <v>6.16</v>
       </c>
     </row>
-    <row r="311" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>40416</v>
       </c>
@@ -10638,7 +10640,7 @@
         <v>7.95</v>
       </c>
     </row>
-    <row r="312" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>40416</v>
       </c>
@@ -10661,7 +10663,7 @@
         <v>12.46</v>
       </c>
     </row>
-    <row r="313" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>40416</v>
       </c>
@@ -10684,7 +10686,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="314" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>40416</v>
       </c>
@@ -10707,7 +10709,7 @@
         <v>22.43</v>
       </c>
     </row>
-    <row r="315" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>40416</v>
       </c>
@@ -10730,7 +10732,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="316" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>40414</v>
       </c>
@@ -10753,7 +10755,7 @@
         <v>18.670000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>40414</v>
       </c>
@@ -10776,7 +10778,7 @@
         <v>20.82</v>
       </c>
     </row>
-    <row r="318" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>40414</v>
       </c>
@@ -10799,7 +10801,7 @@
         <v>23.29</v>
       </c>
     </row>
-    <row r="319" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>40414</v>
       </c>
@@ -10822,7 +10824,7 @@
         <v>33.71</v>
       </c>
     </row>
-    <row r="320" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>40414</v>
       </c>
@@ -10845,7 +10847,7 @@
         <v>33.71</v>
       </c>
     </row>
-    <row r="321" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>40414</v>
       </c>
@@ -10868,7 +10870,7 @@
         <v>23.22</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>40445</v>
       </c>
@@ -10891,7 +10893,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>40445</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="324" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>40445</v>
       </c>
@@ -10937,7 +10939,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>40445</v>
       </c>
@@ -10960,7 +10962,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>40445</v>
       </c>
@@ -10983,7 +10985,7 @@
         <v>19.43</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>40445</v>
       </c>
@@ -11006,7 +11008,7 @@
         <v>16.46</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>40445</v>
       </c>
@@ -11029,7 +11031,7 @@
         <v>20.079999999999998</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>40445</v>
       </c>
@@ -11052,7 +11054,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="330" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>40443</v>
       </c>
@@ -11075,7 +11077,7 @@
         <v>3.79</v>
       </c>
     </row>
-    <row r="331" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>40443</v>
       </c>
@@ -11098,7 +11100,7 @@
         <v>5.53</v>
       </c>
     </row>
-    <row r="332" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>40443</v>
       </c>
@@ -11121,7 +11123,7 @@
         <v>12.39</v>
       </c>
     </row>
-    <row r="333" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>40443</v>
       </c>
@@ -11144,7 +11146,7 @@
         <v>21.42</v>
       </c>
     </row>
-    <row r="334" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>40443</v>
       </c>
@@ -11167,7 +11169,7 @@
         <v>19.91</v>
       </c>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>40443</v>
       </c>
@@ -11191,7 +11193,7 @@
       </c>
       <c r="H335" s="10"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>40442</v>
       </c>
@@ -11215,7 +11217,7 @@
       </c>
       <c r="H336" s="10"/>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>40442</v>
       </c>
@@ -11239,7 +11241,7 @@
       </c>
       <c r="H337" s="10"/>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>40442</v>
       </c>
@@ -11263,7 +11265,7 @@
       </c>
       <c r="H338" s="10"/>
     </row>
-    <row r="339" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>40442</v>
       </c>
@@ -11286,7 +11288,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>40442</v>
       </c>
@@ -11310,7 +11312,7 @@
       </c>
       <c r="H340" s="10"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>40442</v>
       </c>
@@ -11334,7 +11336,7 @@
       </c>
       <c r="H341" s="10"/>
     </row>
-    <row r="342" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" s="16" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>40471</v>
       </c>
@@ -11357,7 +11359,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="343" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:8" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>40471</v>
       </c>
@@ -11380,7 +11382,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>40471</v>
       </c>
@@ -11404,7 +11406,7 @@
       </c>
       <c r="H344" s="10"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>40471</v>
       </c>
@@ -11428,7 +11430,7 @@
       </c>
       <c r="H345" s="10"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>40471</v>
       </c>
@@ -11452,7 +11454,7 @@
       </c>
       <c r="H346" s="10"/>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>40471</v>
       </c>
@@ -11476,7 +11478,7 @@
       </c>
       <c r="H347" s="10"/>
     </row>
-    <row r="348" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>40471</v>
       </c>
@@ -11499,7 +11501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>40471</v>
       </c>
@@ -11523,7 +11525,7 @@
       </c>
       <c r="H349" s="10"/>
     </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>40472</v>
       </c>
@@ -11547,7 +11549,7 @@
       </c>
       <c r="H350" s="10"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>40472</v>
       </c>
@@ -11571,7 +11573,7 @@
       </c>
       <c r="H351" s="10"/>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>40472</v>
       </c>
@@ -11595,7 +11597,7 @@
       </c>
       <c r="H352" s="10"/>
     </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>40472</v>
       </c>
@@ -11619,7 +11621,7 @@
       </c>
       <c r="H353" s="10"/>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>40472</v>
       </c>
@@ -11643,7 +11645,7 @@
       </c>
       <c r="H354" s="10"/>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>40472</v>
       </c>
@@ -11667,7 +11669,7 @@
       </c>
       <c r="H355" s="10"/>
     </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>40474</v>
       </c>
@@ -11691,7 +11693,7 @@
       </c>
       <c r="H356" s="10"/>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>40474</v>
       </c>
@@ -11715,7 +11717,7 @@
       </c>
       <c r="H357" s="10"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>40474</v>
       </c>
@@ -11739,7 +11741,7 @@
       </c>
       <c r="H358" s="10"/>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>40474</v>
       </c>
@@ -11763,7 +11765,7 @@
       </c>
       <c r="H359" s="10"/>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>40474</v>
       </c>
@@ -11787,7 +11789,7 @@
       </c>
       <c r="H360" s="10"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>40474</v>
       </c>
@@ -11811,7 +11813,7 @@
       </c>
       <c r="H361" s="10"/>
     </row>
-    <row r="362" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>40506</v>
       </c>
@@ -11834,7 +11836,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="363" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>40506</v>
       </c>
@@ -11857,7 +11859,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>40506</v>
       </c>
@@ -11880,7 +11882,7 @@
         <v>22.4</v>
       </c>
     </row>
-    <row r="365" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>40506</v>
       </c>
@@ -11903,7 +11905,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="366" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>40506</v>
       </c>
@@ -11926,7 +11928,7 @@
         <v>26.34</v>
       </c>
     </row>
-    <row r="367" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>40506</v>
       </c>
@@ -11949,7 +11951,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="368" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>40506</v>
       </c>
@@ -11972,7 +11974,7 @@
         <v>26.85</v>
       </c>
     </row>
-    <row r="369" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>40506</v>
       </c>
@@ -11995,7 +11997,7 @@
         <v>27.47</v>
       </c>
     </row>
-    <row r="370" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>40507</v>
       </c>
@@ -12018,7 +12020,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="371" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>40507</v>
       </c>
@@ -12041,7 +12043,7 @@
         <v>17.22</v>
       </c>
     </row>
-    <row r="372" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>40507</v>
       </c>
@@ -12064,7 +12066,7 @@
         <v>24.32</v>
       </c>
     </row>
-    <row r="373" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>40507</v>
       </c>
@@ -12087,7 +12089,7 @@
         <v>26.45</v>
       </c>
     </row>
-    <row r="374" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>40507</v>
       </c>
@@ -12110,7 +12112,7 @@
         <v>27.69</v>
       </c>
     </row>
-    <row r="375" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>40507</v>
       </c>
@@ -12133,7 +12135,7 @@
         <v>27.38</v>
       </c>
     </row>
-    <row r="376" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>40505</v>
       </c>
@@ -12156,7 +12158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="377" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>40505</v>
       </c>
@@ -12179,7 +12181,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="378" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>40505</v>
       </c>
@@ -12202,7 +12204,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="379" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>40505</v>
       </c>
@@ -12225,7 +12227,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="380" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>40505</v>
       </c>
@@ -12248,7 +12250,7 @@
         <v>31.65</v>
       </c>
     </row>
-    <row r="381" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>40505</v>
       </c>
@@ -12271,7 +12273,7 @@
         <v>30.27</v>
       </c>
     </row>
-    <row r="382" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>40528</v>
       </c>
@@ -12294,7 +12296,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>40528</v>
       </c>
@@ -12318,7 +12320,7 @@
       </c>
       <c r="H383" s="10"/>
     </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>40528</v>
       </c>
@@ -12342,7 +12344,7 @@
       </c>
       <c r="H384" s="10"/>
     </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>40528</v>
       </c>
@@ -12366,7 +12368,7 @@
       </c>
       <c r="H385" s="10"/>
     </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>40528</v>
       </c>
@@ -12390,7 +12392,7 @@
       </c>
       <c r="H386" s="10"/>
     </row>
-    <row r="387" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:8" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>40528</v>
       </c>
@@ -12413,7 +12415,7 @@
         <v>28.35</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>40528</v>
       </c>
@@ -12437,7 +12439,7 @@
       </c>
       <c r="H388" s="10"/>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>40528</v>
       </c>
@@ -12461,7 +12463,7 @@
       </c>
       <c r="H389" s="10"/>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>40529</v>
       </c>
@@ -12485,7 +12487,7 @@
       </c>
       <c r="H390" s="10"/>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>40529</v>
       </c>
@@ -12509,7 +12511,7 @@
       </c>
       <c r="H391" s="10"/>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>40529</v>
       </c>
@@ -12533,7 +12535,7 @@
       </c>
       <c r="H392" s="10"/>
     </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>40529</v>
       </c>
@@ -12557,7 +12559,7 @@
       </c>
       <c r="H393" s="10"/>
     </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>40529</v>
       </c>
@@ -12581,7 +12583,7 @@
       </c>
       <c r="H394" s="10"/>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>40529</v>
       </c>
@@ -12605,7 +12607,7 @@
       </c>
       <c r="H395" s="10"/>
     </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>40530</v>
       </c>
@@ -12629,7 +12631,7 @@
       </c>
       <c r="H396" s="10"/>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>40530</v>
       </c>
@@ -12653,7 +12655,7 @@
       </c>
       <c r="H397" s="10"/>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>40530</v>
       </c>
@@ -12677,7 +12679,7 @@
       </c>
       <c r="H398" s="10"/>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>40530</v>
       </c>
@@ -12701,7 +12703,7 @@
       </c>
       <c r="H399" s="10"/>
     </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>40530</v>
       </c>
@@ -12725,7 +12727,7 @@
       </c>
       <c r="H400" s="10"/>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>40530</v>
       </c>
@@ -12749,7 +12751,7 @@
       </c>
       <c r="H401" s="10"/>
     </row>
-    <row r="402" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>40562</v>
       </c>
@@ -12772,7 +12774,7 @@
         <v>28.49</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>40562</v>
       </c>
@@ -12796,7 +12798,7 @@
       </c>
       <c r="H403" s="10"/>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>40562</v>
       </c>
@@ -12820,7 +12822,7 @@
       </c>
       <c r="H404" s="10"/>
     </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>40562</v>
       </c>
@@ -12844,7 +12846,7 @@
       </c>
       <c r="H405" s="10"/>
     </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>40562</v>
       </c>
@@ -12868,7 +12870,7 @@
       </c>
       <c r="H406" s="10"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>40562</v>
       </c>
@@ -12892,7 +12894,7 @@
       </c>
       <c r="H407" s="10"/>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>40562</v>
       </c>
@@ -12916,7 +12918,7 @@
       </c>
       <c r="H408" s="10"/>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>40562</v>
       </c>
@@ -12940,7 +12942,7 @@
       </c>
       <c r="H409" s="10"/>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>40563</v>
       </c>
@@ -12964,7 +12966,7 @@
       </c>
       <c r="H410" s="10"/>
     </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>40563</v>
       </c>
@@ -12988,7 +12990,7 @@
       </c>
       <c r="H411" s="10"/>
     </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>40563</v>
       </c>
@@ -13012,7 +13014,7 @@
       </c>
       <c r="H412" s="10"/>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>40563</v>
       </c>
@@ -13036,7 +13038,7 @@
       </c>
       <c r="H413" s="10"/>
     </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>40563</v>
       </c>
@@ -13060,7 +13062,7 @@
       </c>
       <c r="H414" s="10"/>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>40563</v>
       </c>
@@ -13084,7 +13086,7 @@
       </c>
       <c r="H415" s="10"/>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>40564</v>
       </c>
@@ -13108,7 +13110,7 @@
       </c>
       <c r="H416" s="10"/>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>40564</v>
       </c>
@@ -13132,7 +13134,7 @@
       </c>
       <c r="H417" s="10"/>
     </row>
-    <row r="418" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>40564</v>
       </c>
@@ -13155,7 +13157,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>40564</v>
       </c>
@@ -13179,7 +13181,7 @@
       </c>
       <c r="H419" s="10"/>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>40564</v>
       </c>
@@ -13203,7 +13205,7 @@
       </c>
       <c r="H420" s="10"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>40564</v>
       </c>
@@ -13227,7 +13229,7 @@
       </c>
       <c r="H421" s="10"/>
     </row>
-    <row r="422" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>40588</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>27.9</v>
       </c>
     </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>40588</v>
       </c>
@@ -13274,7 +13276,7 @@
       </c>
       <c r="H423" s="10"/>
     </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>40588</v>
       </c>
@@ -13298,7 +13300,7 @@
       </c>
       <c r="H424" s="10"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>40588</v>
       </c>
@@ -13322,7 +13324,7 @@
       </c>
       <c r="H425" s="10"/>
     </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>40588</v>
       </c>
@@ -13346,7 +13348,7 @@
       </c>
       <c r="H426" s="10"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>40588</v>
       </c>
@@ -13370,7 +13372,7 @@
       </c>
       <c r="H427" s="10"/>
     </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>40588</v>
       </c>
@@ -13394,7 +13396,7 @@
       </c>
       <c r="H428" s="10"/>
     </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>40588</v>
       </c>
@@ -13418,7 +13420,7 @@
       </c>
       <c r="H429" s="10"/>
     </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>40589</v>
       </c>
@@ -13442,7 +13444,7 @@
       </c>
       <c r="H430" s="10"/>
     </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>40589</v>
       </c>
@@ -13466,7 +13468,7 @@
       </c>
       <c r="H431" s="10"/>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>40589</v>
       </c>
@@ -13490,7 +13492,7 @@
       </c>
       <c r="H432" s="10"/>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>40589</v>
       </c>
@@ -13514,7 +13516,7 @@
       </c>
       <c r="H433" s="10"/>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>40589</v>
       </c>
@@ -13538,7 +13540,7 @@
       </c>
       <c r="H434" s="10"/>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>40589</v>
       </c>
@@ -13562,7 +13564,7 @@
       </c>
       <c r="H435" s="10"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>40590</v>
       </c>
@@ -13586,7 +13588,7 @@
       </c>
       <c r="H436" s="10"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>40590</v>
       </c>
@@ -13610,7 +13612,7 @@
       </c>
       <c r="H437" s="10"/>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>40590</v>
       </c>
@@ -13634,7 +13636,7 @@
       </c>
       <c r="H438" s="10"/>
     </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>40590</v>
       </c>
@@ -13658,7 +13660,7 @@
       </c>
       <c r="H439" s="10"/>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>40590</v>
       </c>
@@ -13682,7 +13684,7 @@
       </c>
       <c r="H440" s="10"/>
     </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>40590</v>
       </c>
@@ -13706,7 +13708,7 @@
       </c>
       <c r="H441" s="10"/>
     </row>
-    <row r="442" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:8" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>40615</v>
       </c>
@@ -13729,7 +13731,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>40615</v>
       </c>
@@ -13753,7 +13755,7 @@
       </c>
       <c r="H443" s="10"/>
     </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>40615</v>
       </c>
@@ -13777,7 +13779,7 @@
       </c>
       <c r="H444" s="10"/>
     </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>40615</v>
       </c>
@@ -13801,7 +13803,7 @@
       </c>
       <c r="H445" s="10"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>40615</v>
       </c>
@@ -13825,7 +13827,7 @@
       </c>
       <c r="H446" s="10"/>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>40615</v>
       </c>
@@ -13849,7 +13851,7 @@
       </c>
       <c r="H447" s="10"/>
     </row>
-    <row r="448" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>40615</v>
       </c>
@@ -13873,7 +13875,7 @@
       </c>
       <c r="H448" s="10"/>
     </row>
-    <row r="449" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>40615</v>
       </c>
@@ -13897,7 +13899,7 @@
       </c>
       <c r="H449" s="10"/>
     </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>40617</v>
       </c>
@@ -13921,7 +13923,7 @@
       </c>
       <c r="H450" s="10"/>
     </row>
-    <row r="451" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>40617</v>
       </c>
@@ -13945,7 +13947,7 @@
       </c>
       <c r="H451" s="10"/>
     </row>
-    <row r="452" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>40617</v>
       </c>
@@ -13969,7 +13971,7 @@
       </c>
       <c r="H452" s="10"/>
     </row>
-    <row r="453" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>40617</v>
       </c>
@@ -13993,7 +13995,7 @@
       </c>
       <c r="H453" s="10"/>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>40617</v>
       </c>
@@ -14017,7 +14019,7 @@
       </c>
       <c r="H454" s="10"/>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>40617</v>
       </c>
@@ -14041,7 +14043,7 @@
       </c>
       <c r="H455" s="10"/>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>40614</v>
       </c>
@@ -14065,7 +14067,7 @@
       </c>
       <c r="H456" s="10"/>
     </row>
-    <row r="457" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>40614</v>
       </c>
@@ -14089,7 +14091,7 @@
       </c>
       <c r="H457" s="10"/>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>40614</v>
       </c>
@@ -14113,7 +14115,7 @@
       </c>
       <c r="H458" s="10"/>
     </row>
-    <row r="459" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>40614</v>
       </c>
@@ -14137,7 +14139,7 @@
       </c>
       <c r="H459" s="10"/>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>40614</v>
       </c>
@@ -14161,7 +14163,7 @@
       </c>
       <c r="H460" s="10"/>
     </row>
-    <row r="461" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>40614</v>
       </c>
@@ -14185,7 +14187,7 @@
       </c>
       <c r="H461" s="10"/>
     </row>
-    <row r="462" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:8" s="15" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>40653</v>
       </c>
@@ -14208,7 +14210,7 @@
         <v>24.68</v>
       </c>
     </row>
-    <row r="463" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>40653</v>
       </c>
@@ -14232,7 +14234,7 @@
       </c>
       <c r="H463" s="10"/>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>40653</v>
       </c>
@@ -14256,7 +14258,7 @@
       </c>
       <c r="H464" s="10"/>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>40653</v>
       </c>
@@ -14280,7 +14282,7 @@
       </c>
       <c r="H465" s="10"/>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>40653</v>
       </c>
@@ -14304,7 +14306,7 @@
       </c>
       <c r="H466" s="10"/>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>40653</v>
       </c>
@@ -14328,7 +14330,7 @@
       </c>
       <c r="H467" s="10"/>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>40653</v>
       </c>
@@ -14352,7 +14354,7 @@
       </c>
       <c r="H468" s="10"/>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>40653</v>
       </c>
@@ -14376,7 +14378,7 @@
       </c>
       <c r="H469" s="10"/>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>40655</v>
       </c>
@@ -14400,7 +14402,7 @@
       </c>
       <c r="H470" s="10"/>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>40655</v>
       </c>
@@ -14424,7 +14426,7 @@
       </c>
       <c r="H471" s="10"/>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>40655</v>
       </c>
@@ -14448,7 +14450,7 @@
       </c>
       <c r="H472" s="10"/>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>40655</v>
       </c>
@@ -14472,7 +14474,7 @@
       </c>
       <c r="H473" s="10"/>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>40655</v>
       </c>
@@ -14496,7 +14498,7 @@
       </c>
       <c r="H474" s="10"/>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>40655</v>
       </c>
@@ -14520,7 +14522,7 @@
       </c>
       <c r="H475" s="10"/>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>40652</v>
       </c>
@@ -14544,7 +14546,7 @@
       </c>
       <c r="H476" s="10"/>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>40652</v>
       </c>
@@ -14568,7 +14570,7 @@
       </c>
       <c r="H477" s="10"/>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>40652</v>
       </c>
@@ -14592,7 +14594,7 @@
       </c>
       <c r="H478" s="10"/>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>40652</v>
       </c>
@@ -14616,7 +14618,7 @@
       </c>
       <c r="H479" s="10"/>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="5">
         <v>40652</v>
       </c>
@@ -14640,7 +14642,7 @@
       </c>
       <c r="H480" s="10"/>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="5">
         <v>40652</v>
       </c>
@@ -14664,7 +14666,7 @@
       </c>
       <c r="H481" s="10"/>
     </row>
-    <row r="482" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:8" s="17" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="5">
         <v>40687</v>
       </c>
@@ -14687,7 +14689,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="5">
         <v>40687</v>
       </c>
@@ -14711,7 +14713,7 @@
       </c>
       <c r="H483" s="10"/>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="5">
         <v>40687</v>
       </c>
@@ -14735,7 +14737,7 @@
       </c>
       <c r="H484" s="10"/>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>40687</v>
       </c>
@@ -14759,7 +14761,7 @@
       </c>
       <c r="H485" s="10"/>
     </row>
-    <row r="486" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>40687</v>
       </c>
@@ -14783,7 +14785,7 @@
       </c>
       <c r="H486" s="10"/>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>40687</v>
       </c>
@@ -14807,7 +14809,7 @@
       </c>
       <c r="H487" s="10"/>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>40687</v>
       </c>
@@ -14831,7 +14833,7 @@
       </c>
       <c r="H488" s="10"/>
     </row>
-    <row r="489" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>40687</v>
       </c>
@@ -14855,7 +14857,7 @@
       </c>
       <c r="H489" s="10"/>
     </row>
-    <row r="490" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>40688</v>
       </c>
@@ -14879,7 +14881,7 @@
       </c>
       <c r="H490" s="10"/>
     </row>
-    <row r="491" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>40688</v>
       </c>
@@ -14903,7 +14905,7 @@
       </c>
       <c r="H491" s="10"/>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>40688</v>
       </c>
@@ -14927,7 +14929,7 @@
       </c>
       <c r="H492" s="10"/>
     </row>
-    <row r="493" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>40688</v>
       </c>
@@ -14951,7 +14953,7 @@
       </c>
       <c r="H493" s="10"/>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>40688</v>
       </c>
@@ -14975,7 +14977,7 @@
       </c>
       <c r="H494" s="10"/>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>40688</v>
       </c>
@@ -14999,7 +15001,7 @@
       </c>
       <c r="H495" s="10"/>
     </row>
-    <row r="496" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>40684</v>
       </c>
@@ -15023,7 +15025,7 @@
       </c>
       <c r="H496" s="10"/>
     </row>
-    <row r="497" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>40684</v>
       </c>
@@ -15047,7 +15049,7 @@
       </c>
       <c r="H497" s="10"/>
     </row>
-    <row r="498" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>40684</v>
       </c>
@@ -15071,7 +15073,7 @@
       </c>
       <c r="H498" s="10"/>
     </row>
-    <row r="499" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>40684</v>
       </c>
@@ -15095,7 +15097,7 @@
       </c>
       <c r="H499" s="10"/>
     </row>
-    <row r="500" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>40684</v>
       </c>
@@ -15119,7 +15121,7 @@
       </c>
       <c r="H500" s="10"/>
     </row>
-    <row r="501" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>40684</v>
       </c>
@@ -15143,7 +15145,7 @@
       </c>
       <c r="H501" s="10"/>
     </row>
-    <row r="502" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>40709</v>
       </c>
@@ -15166,7 +15168,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="503" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>40709</v>
       </c>
@@ -15189,7 +15191,7 @@
         <v>27.03</v>
       </c>
     </row>
-    <row r="504" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>40709</v>
       </c>
@@ -15212,7 +15214,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="505" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>40709</v>
       </c>
@@ -15235,7 +15237,7 @@
         <v>30.96</v>
       </c>
     </row>
-    <row r="506" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>40709</v>
       </c>
@@ -15258,7 +15260,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="507" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>40709</v>
       </c>
@@ -15281,7 +15283,7 @@
         <v>31.47</v>
       </c>
     </row>
-    <row r="508" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>40709</v>
       </c>
@@ -15304,7 +15306,7 @@
         <v>31.73</v>
       </c>
     </row>
-    <row r="509" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:8" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>40709</v>
       </c>
@@ -15327,7 +15329,7 @@
         <v>31.7</v>
       </c>
     </row>
-    <row r="510" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>40711</v>
       </c>
@@ -15351,7 +15353,7 @@
       </c>
       <c r="H510" s="10"/>
     </row>
-    <row r="511" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" s="5">
         <v>40711</v>
       </c>
@@ -15375,7 +15377,7 @@
       </c>
       <c r="H511" s="10"/>
     </row>
-    <row r="512" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>40711</v>
       </c>
@@ -15399,7 +15401,7 @@
       </c>
       <c r="H512" s="10"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>40711</v>
       </c>
@@ -15423,7 +15425,7 @@
       </c>
       <c r="H513" s="10"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="5">
         <v>40711</v>
       </c>
@@ -15447,7 +15449,7 @@
       </c>
       <c r="H514" s="10"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" s="5">
         <v>40717</v>
       </c>
@@ -15471,7 +15473,7 @@
       </c>
       <c r="H515" s="10"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" s="5">
         <v>40708</v>
       </c>
@@ -15495,7 +15497,7 @@
       </c>
       <c r="H516" s="10"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" s="5">
         <v>40708</v>
       </c>
@@ -15519,7 +15521,7 @@
       </c>
       <c r="H517" s="10"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" s="5">
         <v>40708</v>
       </c>
@@ -15543,7 +15545,7 @@
       </c>
       <c r="H518" s="10"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" s="5">
         <v>40708</v>
       </c>
@@ -15567,7 +15569,7 @@
       </c>
       <c r="H519" s="10"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" s="5">
         <v>40708</v>
       </c>
@@ -15591,7 +15593,7 @@
       </c>
       <c r="H520" s="10"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>40708</v>
       </c>
@@ -15615,7 +15617,7 @@
       </c>
       <c r="H521" s="10"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>40740</v>
       </c>
@@ -15639,7 +15641,7 @@
       </c>
       <c r="H522" s="10"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>40740</v>
       </c>
@@ -15663,7 +15665,7 @@
       </c>
       <c r="H523" s="10"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>40740</v>
       </c>
@@ -15687,7 +15689,7 @@
       </c>
       <c r="H524" s="10"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>40740</v>
       </c>
@@ -15711,7 +15713,7 @@
       </c>
       <c r="H525" s="10"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>40740</v>
       </c>
@@ -15735,7 +15737,7 @@
       </c>
       <c r="H526" s="10"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>40740</v>
       </c>
@@ -15759,7 +15761,7 @@
       </c>
       <c r="H527" s="10"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>40740</v>
       </c>
@@ -15783,7 +15785,7 @@
       </c>
       <c r="H528" s="10"/>
     </row>
-    <row r="529" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>40740</v>
       </c>
@@ -15807,7 +15809,7 @@
       </c>
       <c r="H529" s="10"/>
     </row>
-    <row r="530" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>40739</v>
       </c>
@@ -15831,7 +15833,7 @@
       </c>
       <c r="H530" s="10"/>
     </row>
-    <row r="531" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>40739</v>
       </c>
@@ -15855,7 +15857,7 @@
       </c>
       <c r="H531" s="10"/>
     </row>
-    <row r="532" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>40739</v>
       </c>
@@ -15879,7 +15881,7 @@
       </c>
       <c r="H532" s="10"/>
     </row>
-    <row r="533" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>40739</v>
       </c>
@@ -15903,7 +15905,7 @@
       </c>
       <c r="H533" s="10"/>
     </row>
-    <row r="534" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>40739</v>
       </c>
@@ -15927,7 +15929,7 @@
       </c>
       <c r="H534" s="10"/>
     </row>
-    <row r="535" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>40740</v>
       </c>
@@ -15951,7 +15953,7 @@
       </c>
       <c r="H535" s="10"/>
     </row>
-    <row r="536" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>40738</v>
       </c>
@@ -15975,7 +15977,7 @@
       </c>
       <c r="H536" s="10"/>
     </row>
-    <row r="537" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>40738</v>
       </c>
@@ -15999,7 +16001,7 @@
       </c>
       <c r="H537" s="10"/>
     </row>
-    <row r="538" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>40738</v>
       </c>
@@ -16023,7 +16025,7 @@
       </c>
       <c r="H538" s="10"/>
     </row>
-    <row r="539" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>40738</v>
       </c>
@@ -16047,7 +16049,7 @@
       </c>
       <c r="H539" s="10"/>
     </row>
-    <row r="540" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>40738</v>
       </c>
@@ -16071,7 +16073,7 @@
       </c>
       <c r="H540" s="10"/>
     </row>
-    <row r="541" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>40738</v>
       </c>
@@ -16095,7 +16097,7 @@
       </c>
       <c r="H541" s="10"/>
     </row>
-    <row r="542" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="5">
         <v>40766</v>
       </c>
@@ -16119,7 +16121,7 @@
       </c>
       <c r="H542" s="10"/>
     </row>
-    <row r="543" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="5">
         <v>40766</v>
       </c>
@@ -16143,7 +16145,7 @@
       </c>
       <c r="H543" s="10"/>
     </row>
-    <row r="544" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>40766</v>
       </c>
@@ -16167,7 +16169,7 @@
       </c>
       <c r="H544" s="10"/>
     </row>
-    <row r="545" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>40766</v>
       </c>
@@ -16191,7 +16193,7 @@
       </c>
       <c r="H545" s="10"/>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>40766</v>
       </c>
@@ -16215,7 +16217,7 @@
       </c>
       <c r="H546" s="10"/>
     </row>
-    <row r="547" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>40766</v>
       </c>
@@ -16239,7 +16241,7 @@
       </c>
       <c r="H547" s="10"/>
     </row>
-    <row r="548" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>40766</v>
       </c>
@@ -16263,7 +16265,7 @@
       </c>
       <c r="H548" s="10"/>
     </row>
-    <row r="549" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>40766</v>
       </c>
@@ -16287,7 +16289,7 @@
       </c>
       <c r="H549" s="10"/>
     </row>
-    <row r="550" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>40767</v>
       </c>
@@ -16311,7 +16313,7 @@
       </c>
       <c r="H550" s="10"/>
     </row>
-    <row r="551" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>40767</v>
       </c>
@@ -16335,7 +16337,7 @@
       </c>
       <c r="H551" s="10"/>
     </row>
-    <row r="552" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>40767</v>
       </c>
@@ -16359,7 +16361,7 @@
       </c>
       <c r="H552" s="10"/>
     </row>
-    <row r="553" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>40767</v>
       </c>
@@ -16383,7 +16385,7 @@
       </c>
       <c r="H553" s="10"/>
     </row>
-    <row r="554" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>40767</v>
       </c>
@@ -16407,7 +16409,7 @@
       </c>
       <c r="H554" s="10"/>
     </row>
-    <row r="555" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>40767</v>
       </c>
@@ -16431,7 +16433,7 @@
       </c>
       <c r="H555" s="10"/>
     </row>
-    <row r="556" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>40765</v>
       </c>
@@ -16455,7 +16457,7 @@
       </c>
       <c r="H556" s="10"/>
     </row>
-    <row r="557" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>40765</v>
       </c>
@@ -16479,7 +16481,7 @@
       </c>
       <c r="H557" s="10"/>
     </row>
-    <row r="558" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>40765</v>
       </c>
@@ -16503,7 +16505,7 @@
       </c>
       <c r="H558" s="10"/>
     </row>
-    <row r="559" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>40765</v>
       </c>
@@ -16527,7 +16529,7 @@
       </c>
       <c r="H559" s="10"/>
     </row>
-    <row r="560" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>40765</v>
       </c>
@@ -16551,7 +16553,7 @@
       </c>
       <c r="H560" s="10"/>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>40765</v>
       </c>
@@ -16575,7 +16577,7 @@
       </c>
       <c r="H561" s="10"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>40800</v>
       </c>
@@ -16599,7 +16601,7 @@
       </c>
       <c r="H562" s="10"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>40800</v>
       </c>
@@ -16623,7 +16625,7 @@
       </c>
       <c r="H563" s="10"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>40800</v>
       </c>
@@ -16647,7 +16649,7 @@
       </c>
       <c r="H564" s="10"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>40800</v>
       </c>
@@ -16671,7 +16673,7 @@
       </c>
       <c r="H565" s="10"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>40800</v>
       </c>
@@ -16695,7 +16697,7 @@
       </c>
       <c r="H566" s="10"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>40800</v>
       </c>
@@ -16719,7 +16721,7 @@
       </c>
       <c r="H567" s="10"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>40800</v>
       </c>
@@ -16743,7 +16745,7 @@
       </c>
       <c r="H568" s="10"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>40800</v>
       </c>
@@ -16767,7 +16769,7 @@
       </c>
       <c r="H569" s="10"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>40801</v>
       </c>
@@ -16791,7 +16793,7 @@
       </c>
       <c r="H570" s="10"/>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>40801</v>
       </c>
@@ -16815,7 +16817,7 @@
       </c>
       <c r="H571" s="10"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>40801</v>
       </c>
@@ -16839,7 +16841,7 @@
       </c>
       <c r="H572" s="10"/>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>40801</v>
       </c>
@@ -16863,7 +16865,7 @@
       </c>
       <c r="H573" s="10"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="5">
         <v>40801</v>
       </c>
@@ -16887,7 +16889,7 @@
       </c>
       <c r="H574" s="10"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" s="5">
         <v>40801</v>
       </c>
@@ -16911,7 +16913,7 @@
       </c>
       <c r="H575" s="10"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" s="5">
         <v>40799</v>
       </c>
@@ -16935,7 +16937,7 @@
       </c>
       <c r="H576" s="10"/>
     </row>
-    <row r="577" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" s="5">
         <v>40799</v>
       </c>
@@ -16959,7 +16961,7 @@
       </c>
       <c r="H577" s="10"/>
     </row>
-    <row r="578" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" s="5">
         <v>40799</v>
       </c>
@@ -16983,7 +16985,7 @@
       </c>
       <c r="H578" s="10"/>
     </row>
-    <row r="579" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" s="5">
         <v>40799</v>
       </c>
@@ -17007,7 +17009,7 @@
       </c>
       <c r="H579" s="10"/>
     </row>
-    <row r="580" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A580" s="5">
         <v>40799</v>
       </c>
@@ -17031,7 +17033,7 @@
       </c>
       <c r="H580" s="10"/>
     </row>
-    <row r="581" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="5">
         <v>40799</v>
       </c>
@@ -17055,7 +17057,7 @@
       </c>
       <c r="H581" s="10"/>
     </row>
-    <row r="582" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="5">
         <v>40838</v>
       </c>
@@ -17079,7 +17081,7 @@
       </c>
       <c r="H582" s="10"/>
     </row>
-    <row r="583" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="5">
         <v>40838</v>
       </c>
@@ -17103,7 +17105,7 @@
       </c>
       <c r="H583" s="10"/>
     </row>
-    <row r="584" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="5">
         <v>40838</v>
       </c>
@@ -17127,7 +17129,7 @@
       </c>
       <c r="H584" s="10"/>
     </row>
-    <row r="585" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="5">
         <v>40838</v>
       </c>
@@ -17151,7 +17153,7 @@
       </c>
       <c r="H585" s="10"/>
     </row>
-    <row r="586" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="5">
         <v>40838</v>
       </c>
@@ -17175,7 +17177,7 @@
       </c>
       <c r="H586" s="10"/>
     </row>
-    <row r="587" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="5">
         <v>40838</v>
       </c>
@@ -17199,7 +17201,7 @@
       </c>
       <c r="H587" s="10"/>
     </row>
-    <row r="588" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="5">
         <v>40838</v>
       </c>
@@ -17223,7 +17225,7 @@
       </c>
       <c r="H588" s="10"/>
     </row>
-    <row r="589" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="5">
         <v>40838</v>
       </c>
@@ -17247,7 +17249,7 @@
       </c>
       <c r="H589" s="10"/>
     </row>
-    <row r="590" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" s="5">
         <v>40837</v>
       </c>
@@ -17271,7 +17273,7 @@
       </c>
       <c r="H590" s="10"/>
     </row>
-    <row r="591" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" s="5">
         <v>40837</v>
       </c>
@@ -17295,7 +17297,7 @@
       </c>
       <c r="H591" s="10"/>
     </row>
-    <row r="592" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" s="5">
         <v>40837</v>
       </c>
@@ -17319,7 +17321,7 @@
       </c>
       <c r="H592" s="10"/>
     </row>
-    <row r="593" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" s="5">
         <v>40837</v>
       </c>
@@ -17343,7 +17345,7 @@
       </c>
       <c r="H593" s="10"/>
     </row>
-    <row r="594" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A594" s="5">
         <v>40837</v>
       </c>
@@ -17367,7 +17369,7 @@
       </c>
       <c r="H594" s="10"/>
     </row>
-    <row r="595" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" s="5">
         <v>40837</v>
       </c>
@@ -17391,7 +17393,7 @@
       </c>
       <c r="H595" s="10"/>
     </row>
-    <row r="596" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" s="5">
         <v>40834</v>
       </c>
@@ -17415,7 +17417,7 @@
       </c>
       <c r="H596" s="10"/>
     </row>
-    <row r="597" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" s="5">
         <v>40834</v>
       </c>
@@ -17439,7 +17441,7 @@
       </c>
       <c r="H597" s="10"/>
     </row>
-    <row r="598" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" s="5">
         <v>40834</v>
       </c>
@@ -17463,7 +17465,7 @@
       </c>
       <c r="H598" s="10"/>
     </row>
-    <row r="599" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" s="5">
         <v>40834</v>
       </c>
@@ -17487,7 +17489,7 @@
       </c>
       <c r="H599" s="10"/>
     </row>
-    <row r="600" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" s="5">
         <v>40834</v>
       </c>
@@ -17511,7 +17513,7 @@
       </c>
       <c r="H600" s="10"/>
     </row>
-    <row r="601" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" s="5">
         <v>40834</v>
       </c>
@@ -17535,7 +17537,7 @@
       </c>
       <c r="H601" s="10"/>
     </row>
-    <row r="602" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" s="5">
         <v>40859</v>
       </c>
@@ -17559,7 +17561,7 @@
       </c>
       <c r="H602" s="10"/>
     </row>
-    <row r="603" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" s="5">
         <v>40859</v>
       </c>
@@ -17583,7 +17585,7 @@
       </c>
       <c r="H603" s="10"/>
     </row>
-    <row r="604" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" s="5">
         <v>40859</v>
       </c>
@@ -17607,7 +17609,7 @@
       </c>
       <c r="H604" s="10"/>
     </row>
-    <row r="605" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" s="5">
         <v>40859</v>
       </c>
@@ -17631,7 +17633,7 @@
       </c>
       <c r="H605" s="10"/>
     </row>
-    <row r="606" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" s="5">
         <v>40859</v>
       </c>
@@ -17655,7 +17657,7 @@
       </c>
       <c r="H606" s="10"/>
     </row>
-    <row r="607" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" s="5">
         <v>40859</v>
       </c>
@@ -17679,7 +17681,7 @@
       </c>
       <c r="H607" s="10"/>
     </row>
-    <row r="608" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" s="5">
         <v>40859</v>
       </c>
@@ -17703,7 +17705,7 @@
       </c>
       <c r="H608" s="10"/>
     </row>
-    <row r="609" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" s="5">
         <v>40859</v>
       </c>
@@ -17727,7 +17729,7 @@
       </c>
       <c r="H609" s="10"/>
     </row>
-    <row r="610" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" s="5">
         <v>40860</v>
       </c>
@@ -17751,7 +17753,7 @@
       </c>
       <c r="H610" s="10"/>
     </row>
-    <row r="611" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" s="5">
         <v>40860</v>
       </c>
@@ -17775,7 +17777,7 @@
       </c>
       <c r="H611" s="10"/>
     </row>
-    <row r="612" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" s="5">
         <v>40860</v>
       </c>
@@ -17799,7 +17801,7 @@
       </c>
       <c r="H612" s="10"/>
     </row>
-    <row r="613" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" s="5">
         <v>40860</v>
       </c>
@@ -17823,7 +17825,7 @@
       </c>
       <c r="H613" s="10"/>
     </row>
-    <row r="614" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A614" s="5">
         <v>40860</v>
       </c>
@@ -17847,7 +17849,7 @@
       </c>
       <c r="H614" s="10"/>
     </row>
-    <row r="615" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" s="5">
         <v>40860</v>
       </c>
@@ -17871,7 +17873,7 @@
       </c>
       <c r="H615" s="10"/>
     </row>
-    <row r="616" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" s="5">
         <v>40858</v>
       </c>
@@ -17895,7 +17897,7 @@
       </c>
       <c r="H616" s="10"/>
     </row>
-    <row r="617" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" s="5">
         <v>40858</v>
       </c>
@@ -17919,7 +17921,7 @@
       </c>
       <c r="H617" s="10"/>
     </row>
-    <row r="618" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" s="5">
         <v>40858</v>
       </c>
@@ -17943,7 +17945,7 @@
       </c>
       <c r="H618" s="10"/>
     </row>
-    <row r="619" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" s="5">
         <v>40858</v>
       </c>
@@ -17967,7 +17969,7 @@
       </c>
       <c r="H619" s="10"/>
     </row>
-    <row r="620" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A620" s="5">
         <v>40858</v>
       </c>
@@ -17991,7 +17993,7 @@
       </c>
       <c r="H620" s="10"/>
     </row>
-    <row r="621" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A621" s="5">
         <v>40858</v>
       </c>
@@ -18015,7 +18017,7 @@
       </c>
       <c r="H621" s="10"/>
     </row>
-    <row r="622" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="5">
         <v>40890</v>
       </c>
@@ -18039,7 +18041,7 @@
       </c>
       <c r="H622" s="10"/>
     </row>
-    <row r="623" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="5">
         <v>40890</v>
       </c>
@@ -18063,7 +18065,7 @@
       </c>
       <c r="H623" s="10"/>
     </row>
-    <row r="624" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="5">
         <v>40890</v>
       </c>
@@ -18087,7 +18089,7 @@
       </c>
       <c r="H624" s="10"/>
     </row>
-    <row r="625" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="5">
         <v>40890</v>
       </c>
@@ -18111,7 +18113,7 @@
       </c>
       <c r="H625" s="10"/>
     </row>
-    <row r="626" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="5">
         <v>40890</v>
       </c>
@@ -18135,7 +18137,7 @@
       </c>
       <c r="H626" s="10"/>
     </row>
-    <row r="627" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="5">
         <v>40890</v>
       </c>
@@ -18159,7 +18161,7 @@
       </c>
       <c r="H627" s="10"/>
     </row>
-    <row r="628" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="5">
         <v>40890</v>
       </c>
@@ -18183,7 +18185,7 @@
       </c>
       <c r="H628" s="10"/>
     </row>
-    <row r="629" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="5">
         <v>40890</v>
       </c>
@@ -18207,7 +18209,7 @@
       </c>
       <c r="H629" s="10"/>
     </row>
-    <row r="630" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="5">
         <v>40891</v>
       </c>
@@ -18231,7 +18233,7 @@
       </c>
       <c r="H630" s="10"/>
     </row>
-    <row r="631" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" s="5">
         <v>40891</v>
       </c>
@@ -18255,7 +18257,7 @@
       </c>
       <c r="H631" s="10"/>
     </row>
-    <row r="632" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="5">
         <v>40891</v>
       </c>
@@ -18279,7 +18281,7 @@
       </c>
       <c r="H632" s="10"/>
     </row>
-    <row r="633" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="5">
         <v>40891</v>
       </c>
@@ -18303,7 +18305,7 @@
       </c>
       <c r="H633" s="10"/>
     </row>
-    <row r="634" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A634" s="5">
         <v>40891</v>
       </c>
@@ -18327,7 +18329,7 @@
       </c>
       <c r="H634" s="10"/>
     </row>
-    <row r="635" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="5">
         <v>40891</v>
       </c>
@@ -18351,7 +18353,7 @@
       </c>
       <c r="H635" s="10"/>
     </row>
-    <row r="636" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="5">
         <v>40884</v>
       </c>
@@ -18375,7 +18377,7 @@
       </c>
       <c r="H636" s="10"/>
     </row>
-    <row r="637" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A637" s="5">
         <v>40884</v>
       </c>
@@ -18399,7 +18401,7 @@
       </c>
       <c r="H637" s="10"/>
     </row>
-    <row r="638" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A638" s="5">
         <v>40884</v>
       </c>
@@ -18423,7 +18425,7 @@
       </c>
       <c r="H638" s="10"/>
     </row>
-    <row r="639" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="5">
         <v>40884</v>
       </c>
@@ -18447,7 +18449,7 @@
       </c>
       <c r="H639" s="10"/>
     </row>
-    <row r="640" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="5">
         <v>40884</v>
       </c>
@@ -18471,7 +18473,7 @@
       </c>
       <c r="H640" s="10"/>
     </row>
-    <row r="641" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="5">
         <v>40884</v>
       </c>
@@ -18495,7 +18497,7 @@
       </c>
       <c r="H641" s="10"/>
     </row>
-    <row r="642" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="5">
         <v>40918</v>
       </c>
@@ -18519,7 +18521,7 @@
       </c>
       <c r="H642" s="10"/>
     </row>
-    <row r="643" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="5">
         <v>40918</v>
       </c>
@@ -18543,7 +18545,7 @@
       </c>
       <c r="H643" s="10"/>
     </row>
-    <row r="644" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="5">
         <v>40918</v>
       </c>
@@ -18567,7 +18569,7 @@
       </c>
       <c r="H644" s="10"/>
     </row>
-    <row r="645" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="5">
         <v>40918</v>
       </c>
@@ -18591,7 +18593,7 @@
       </c>
       <c r="H645" s="10"/>
     </row>
-    <row r="646" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="5">
         <v>40918</v>
       </c>
@@ -18615,7 +18617,7 @@
       </c>
       <c r="H646" s="10"/>
     </row>
-    <row r="647" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="5">
         <v>40918</v>
       </c>
@@ -18639,7 +18641,7 @@
       </c>
       <c r="H647" s="10"/>
     </row>
-    <row r="648" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="5">
         <v>40918</v>
       </c>
@@ -18663,7 +18665,7 @@
       </c>
       <c r="H648" s="10"/>
     </row>
-    <row r="649" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" s="5">
         <v>40921</v>
       </c>
@@ -18687,7 +18689,7 @@
       </c>
       <c r="H649" s="10"/>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" s="5">
         <v>40921</v>
       </c>
@@ -18711,7 +18713,7 @@
       </c>
       <c r="H650" s="10"/>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" s="5">
         <v>40921</v>
       </c>
@@ -18735,7 +18737,7 @@
       </c>
       <c r="H651" s="10"/>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" s="5">
         <v>40921</v>
       </c>
@@ -18759,7 +18761,7 @@
       </c>
       <c r="H652" s="10"/>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" s="5">
         <v>40921</v>
       </c>
@@ -18783,7 +18785,7 @@
       </c>
       <c r="H653" s="10"/>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A654" s="5">
         <v>40921</v>
       </c>
@@ -18807,7 +18809,7 @@
       </c>
       <c r="H654" s="10"/>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" s="5">
         <v>40921</v>
       </c>
@@ -18831,7 +18833,7 @@
       </c>
       <c r="H655" s="10"/>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" s="5">
         <v>40919</v>
       </c>
@@ -18855,7 +18857,7 @@
       </c>
       <c r="H656" s="10"/>
     </row>
-    <row r="657" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" s="5">
         <v>40919</v>
       </c>
@@ -18879,7 +18881,7 @@
       </c>
       <c r="H657" s="10"/>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" s="5">
         <v>40919</v>
       </c>
@@ -18903,7 +18905,7 @@
       </c>
       <c r="H658" s="10"/>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" s="5">
         <v>40919</v>
       </c>
@@ -18927,7 +18929,7 @@
       </c>
       <c r="H659" s="10"/>
     </row>
-    <row r="660" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" s="5">
         <v>40919</v>
       </c>
@@ -18951,7 +18953,7 @@
       </c>
       <c r="H660" s="10"/>
     </row>
-    <row r="661" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" s="5">
         <v>40919</v>
       </c>
@@ -18975,7 +18977,7 @@
       </c>
       <c r="H661" s="10"/>
     </row>
-    <row r="662" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" s="5">
         <v>40948</v>
       </c>
@@ -18998,7 +19000,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="663" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" s="5">
         <v>40948</v>
       </c>
@@ -19021,7 +19023,7 @@
         <v>27.16</v>
       </c>
     </row>
-    <row r="664" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" s="5">
         <v>40948</v>
       </c>
@@ -19044,7 +19046,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="665" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" s="5">
         <v>40948</v>
       </c>
@@ -19067,7 +19069,7 @@
         <v>34.24</v>
       </c>
     </row>
-    <row r="666" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" s="5">
         <v>40948</v>
       </c>
@@ -19090,7 +19092,7 @@
         <v>33.47</v>
       </c>
     </row>
-    <row r="667" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" s="5">
         <v>40948</v>
       </c>
@@ -19113,7 +19115,7 @@
         <v>33.67</v>
       </c>
     </row>
-    <row r="668" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" s="5">
         <v>40948</v>
       </c>
@@ -19136,7 +19138,7 @@
         <v>33.950000000000003</v>
       </c>
     </row>
-    <row r="669" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" s="5">
         <v>40948</v>
       </c>
@@ -19159,7 +19161,7 @@
         <v>34.200000000000003</v>
       </c>
     </row>
-    <row r="670" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" s="5">
         <v>40949</v>
       </c>
@@ -19182,7 +19184,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="671" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" s="5">
         <v>40949</v>
       </c>
@@ -19205,7 +19207,7 @@
         <v>27.66</v>
       </c>
     </row>
-    <row r="672" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A672" s="5">
         <v>40949</v>
       </c>
@@ -19228,7 +19230,7 @@
         <v>33.33</v>
       </c>
     </row>
-    <row r="673" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="5">
         <v>40949</v>
       </c>
@@ -19251,7 +19253,7 @@
         <v>34.21</v>
       </c>
     </row>
-    <row r="674" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A674" s="5">
         <v>40949</v>
       </c>
@@ -19274,7 +19276,7 @@
         <v>34.6</v>
       </c>
     </row>
-    <row r="675" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="5">
         <v>40949</v>
       </c>
@@ -19297,7 +19299,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="676" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="5">
         <v>40946</v>
       </c>
@@ -19320,7 +19322,7 @@
         <v>34.35</v>
       </c>
     </row>
-    <row r="677" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="5">
         <v>40946</v>
       </c>
@@ -19343,7 +19345,7 @@
         <v>34.549999999999997</v>
       </c>
     </row>
-    <row r="678" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:7" s="23" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="5">
         <v>40946</v>
       </c>
@@ -19366,7 +19368,7 @@
         <v>34.69</v>
       </c>
     </row>
-    <row r="679" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="5">
         <v>40946</v>
       </c>
@@ -19389,7 +19391,7 @@
         <v>36.82</v>
       </c>
     </row>
-    <row r="680" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="5">
         <v>40946</v>
       </c>
@@ -19412,7 +19414,7 @@
         <v>36.82</v>
       </c>
     </row>
-    <row r="681" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="5">
         <v>40946</v>
       </c>
@@ -19435,7 +19437,7 @@
         <v>34.58</v>
       </c>
     </row>
-    <row r="682" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="5">
         <v>40975</v>
       </c>
@@ -19458,7 +19460,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="683" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="5">
         <v>40975</v>
       </c>
@@ -19481,7 +19483,7 @@
         <v>36.26</v>
       </c>
     </row>
-    <row r="684" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="5">
         <v>40975</v>
       </c>
@@ -19504,7 +19506,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="685" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="5">
         <v>40975</v>
       </c>
@@ -19527,7 +19529,7 @@
         <v>37.72</v>
       </c>
     </row>
-    <row r="686" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A686" s="5">
         <v>40975</v>
       </c>
@@ -19550,7 +19552,7 @@
         <v>37.29</v>
       </c>
     </row>
-    <row r="687" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A687" s="5">
         <v>40975</v>
       </c>
@@ -19573,7 +19575,7 @@
         <v>37.22</v>
       </c>
     </row>
-    <row r="688" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:7" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="5">
         <v>40975</v>
       </c>
@@ -19596,7 +19598,7 @@
         <v>37.21</v>
       </c>
     </row>
-    <row r="689" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="5">
         <v>40975</v>
       </c>
@@ -19619,7 +19621,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="690" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="5">
         <v>40976</v>
       </c>
@@ -19642,7 +19644,7 @@
         <v>29.89</v>
       </c>
     </row>
-    <row r="691" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="5">
         <v>40976</v>
       </c>
@@ -19665,7 +19667,7 @@
         <v>33.369999999999997</v>
       </c>
     </row>
-    <row r="692" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="5">
         <v>40976</v>
       </c>
@@ -19688,7 +19690,7 @@
         <v>36.56</v>
       </c>
     </row>
-    <row r="693" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="5">
         <v>40976</v>
       </c>
@@ -19711,7 +19713,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="694" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A694" s="5">
         <v>40976</v>
       </c>
@@ -19734,7 +19736,7 @@
         <v>37.35</v>
       </c>
     </row>
-    <row r="695" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="5">
         <v>40976</v>
       </c>
@@ -19757,7 +19759,7 @@
         <v>37.28</v>
       </c>
     </row>
-    <row r="696" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="5">
         <v>40974</v>
       </c>
@@ -19780,7 +19782,7 @@
         <v>31.13</v>
       </c>
     </row>
-    <row r="697" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="5">
         <v>40974</v>
       </c>
@@ -19803,7 +19805,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="698" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="5">
         <v>40974</v>
       </c>
@@ -19826,7 +19828,7 @@
         <v>36.99</v>
       </c>
     </row>
-    <row r="699" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="5">
         <v>40974</v>
       </c>
@@ -19849,7 +19851,7 @@
         <v>37.11</v>
       </c>
     </row>
-    <row r="700" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="5">
         <v>40974</v>
       </c>
@@ -19872,7 +19874,7 @@
         <v>37.11</v>
       </c>
     </row>
-    <row r="701" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:8" s="18" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A701" s="5">
         <v>40974</v>
       </c>
@@ -19895,7 +19897,7 @@
         <v>36.97</v>
       </c>
     </row>
-    <row r="702" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A702" s="5">
         <v>41214</v>
       </c>
@@ -19919,7 +19921,7 @@
       </c>
       <c r="H702" s="10"/>
     </row>
-    <row r="703" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A703" s="5">
         <v>41214</v>
       </c>
@@ -19943,7 +19945,7 @@
       </c>
       <c r="H703" s="10"/>
     </row>
-    <row r="704" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A704" s="5">
         <v>41214</v>
       </c>
@@ -19967,7 +19969,7 @@
       </c>
       <c r="H704" s="10"/>
     </row>
-    <row r="705" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A705" s="5">
         <v>41214</v>
       </c>
@@ -19991,7 +19993,7 @@
       </c>
       <c r="H705" s="10"/>
     </row>
-    <row r="706" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A706" s="5">
         <v>41214</v>
       </c>
@@ -20015,7 +20017,7 @@
       </c>
       <c r="H706" s="10"/>
     </row>
-    <row r="707" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A707" s="5">
         <v>41214</v>
       </c>
@@ -20039,7 +20041,7 @@
       </c>
       <c r="H707" s="10"/>
     </row>
-    <row r="708" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A708" s="5">
         <v>41214</v>
       </c>
@@ -20063,7 +20065,7 @@
       </c>
       <c r="H708" s="10"/>
     </row>
-    <row r="709" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A709" s="5">
         <v>41214</v>
       </c>
@@ -20087,7 +20089,7 @@
       </c>
       <c r="H709" s="10"/>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A710" s="5">
         <v>41216</v>
       </c>
@@ -20111,7 +20113,7 @@
       </c>
       <c r="H710" s="10"/>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A711" s="5">
         <v>41216</v>
       </c>
@@ -20135,7 +20137,7 @@
       </c>
       <c r="H711" s="10"/>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A712" s="5">
         <v>41216</v>
       </c>
@@ -20159,7 +20161,7 @@
       </c>
       <c r="H712" s="10"/>
     </row>
-    <row r="713" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A713" s="5">
         <v>41216</v>
       </c>
@@ -20183,7 +20185,7 @@
       </c>
       <c r="H713" s="10"/>
     </row>
-    <row r="714" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A714" s="5">
         <v>41216</v>
       </c>
@@ -20207,7 +20209,7 @@
       </c>
       <c r="H714" s="10"/>
     </row>
-    <row r="715" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A715" s="5">
         <v>41216</v>
       </c>
@@ -20231,7 +20233,7 @@
       </c>
       <c r="H715" s="10"/>
     </row>
-    <row r="716" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A716" s="5">
         <v>41215</v>
       </c>
@@ -20255,7 +20257,7 @@
       </c>
       <c r="H716" s="10"/>
     </row>
-    <row r="717" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A717" s="5">
         <v>41215</v>
       </c>
@@ -20279,7 +20281,7 @@
       </c>
       <c r="H717" s="10"/>
     </row>
-    <row r="718" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A718" s="5">
         <v>41215</v>
       </c>
@@ -20303,7 +20305,7 @@
       </c>
       <c r="H718" s="10"/>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A719" s="5">
         <v>41215</v>
       </c>
@@ -20327,7 +20329,7 @@
       </c>
       <c r="H719" s="10"/>
     </row>
-    <row r="720" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A720" s="5">
         <v>41215</v>
       </c>
@@ -20351,7 +20353,7 @@
       </c>
       <c r="H720" s="10"/>
     </row>
-    <row r="721" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A721" s="5">
         <v>41215</v>
       </c>
@@ -20375,7 +20377,7 @@
       </c>
       <c r="H721" s="10"/>
     </row>
-    <row r="722" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A722" s="5">
         <v>41240</v>
       </c>
@@ -20398,7 +20400,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="723" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A723" s="5">
         <v>41240</v>
       </c>
@@ -20421,7 +20423,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="724" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A724" s="5">
         <v>41240</v>
       </c>
@@ -20444,7 +20446,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="725" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A725" s="5">
         <v>41240</v>
       </c>
@@ -20467,7 +20469,7 @@
         <v>24.98</v>
       </c>
     </row>
-    <row r="726" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A726" s="5">
         <v>41240</v>
       </c>
@@ -20490,7 +20492,7 @@
         <v>25.06</v>
       </c>
     </row>
-    <row r="727" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A727" s="5">
         <v>41240</v>
       </c>
@@ -20513,7 +20515,7 @@
         <v>25.56</v>
       </c>
     </row>
-    <row r="728" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A728" s="5">
         <v>41240</v>
       </c>
@@ -20536,7 +20538,7 @@
         <v>25.55</v>
       </c>
     </row>
-    <row r="729" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A729" s="5">
         <v>41240</v>
       </c>
@@ -20560,7 +20562,7 @@
       </c>
       <c r="H729" s="10"/>
     </row>
-    <row r="730" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A730" s="5">
         <v>41242</v>
       </c>
@@ -20584,7 +20586,7 @@
       </c>
       <c r="H730" s="10"/>
     </row>
-    <row r="731" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A731" s="5">
         <v>41242</v>
       </c>
@@ -20608,7 +20610,7 @@
       </c>
       <c r="H731" s="10"/>
     </row>
-    <row r="732" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A732" s="5">
         <v>41242</v>
       </c>
@@ -20632,7 +20634,7 @@
       </c>
       <c r="H732" s="10"/>
     </row>
-    <row r="733" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A733" s="5">
         <v>41242</v>
       </c>
@@ -20656,7 +20658,7 @@
       </c>
       <c r="H733" s="10"/>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A734" s="5">
         <v>41242</v>
       </c>
@@ -20680,7 +20682,7 @@
       </c>
       <c r="H734" s="10"/>
     </row>
-    <row r="735" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A735" s="5">
         <v>41242</v>
       </c>
@@ -20704,7 +20706,7 @@
       </c>
       <c r="H735" s="10"/>
     </row>
-    <row r="736" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A736" s="5">
         <v>41241</v>
       </c>
@@ -20728,7 +20730,7 @@
       </c>
       <c r="H736" s="10"/>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A737" s="5">
         <v>41241</v>
       </c>
@@ -20752,7 +20754,7 @@
       </c>
       <c r="H737" s="10"/>
     </row>
-    <row r="738" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A738" s="5">
         <v>41241</v>
       </c>
@@ -20776,7 +20778,7 @@
       </c>
       <c r="H738" s="10"/>
     </row>
-    <row r="739" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A739" s="5">
         <v>41241</v>
       </c>
@@ -20800,7 +20802,7 @@
       </c>
       <c r="H739" s="10"/>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A740" s="5">
         <v>41241</v>
       </c>
@@ -20824,7 +20826,7 @@
       </c>
       <c r="H740" s="10"/>
     </row>
-    <row r="741" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A741" s="5">
         <v>41241</v>
       </c>
@@ -20848,7 +20850,7 @@
       </c>
       <c r="H741" s="10"/>
     </row>
-    <row r="742" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A742" s="5">
         <v>41271</v>
       </c>
@@ -20872,7 +20874,7 @@
       </c>
       <c r="H742" s="10"/>
     </row>
-    <row r="743" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A743" s="5">
         <v>41271</v>
       </c>
@@ -20896,7 +20898,7 @@
       </c>
       <c r="H743" s="10"/>
     </row>
-    <row r="744" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A744" s="5">
         <v>41271</v>
       </c>
@@ -20911,7 +20913,7 @@
       </c>
       <c r="H744" s="10"/>
     </row>
-    <row r="745" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A745" s="5">
         <v>41271</v>
       </c>
@@ -20926,7 +20928,7 @@
       </c>
       <c r="H745" s="10"/>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A746" s="5">
         <v>41271</v>
       </c>
@@ -20948,7 +20950,7 @@
       </c>
       <c r="H746" s="10"/>
     </row>
-    <row r="747" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A747" s="5">
         <v>41271</v>
       </c>
@@ -20970,7 +20972,7 @@
       </c>
       <c r="H747" s="10"/>
     </row>
-    <row r="748" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A748" s="5">
         <v>41271</v>
       </c>
@@ -20992,7 +20994,7 @@
       </c>
       <c r="H748" s="10"/>
     </row>
-    <row r="749" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A749" s="5">
         <v>41271</v>
       </c>
@@ -21014,7 +21016,7 @@
       </c>
       <c r="H749" s="10"/>
     </row>
-    <row r="750" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A750" s="5">
         <v>41270</v>
       </c>
@@ -21036,7 +21038,7 @@
       </c>
       <c r="H750" s="10"/>
     </row>
-    <row r="751" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A751" s="5">
         <v>41270</v>
       </c>
@@ -21058,7 +21060,7 @@
       </c>
       <c r="H751" s="10"/>
     </row>
-    <row r="752" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A752" s="5">
         <v>41270</v>
       </c>
@@ -21080,7 +21082,7 @@
       </c>
       <c r="H752" s="10"/>
     </row>
-    <row r="753" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A753" s="5">
         <v>41270</v>
       </c>
@@ -21102,7 +21104,7 @@
       </c>
       <c r="H753" s="10"/>
     </row>
-    <row r="754" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A754" s="5">
         <v>41270</v>
       </c>
@@ -21124,7 +21126,7 @@
       </c>
       <c r="H754" s="10"/>
     </row>
-    <row r="755" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A755" s="5">
         <v>41270</v>
       </c>
@@ -21146,7 +21148,7 @@
       </c>
       <c r="H755" s="10"/>
     </row>
-    <row r="756" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A756" s="5">
         <v>41269</v>
       </c>
@@ -21168,7 +21170,7 @@
       </c>
       <c r="H756" s="10"/>
     </row>
-    <row r="757" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A757" s="5">
         <v>41269</v>
       </c>
@@ -21190,7 +21192,7 @@
       </c>
       <c r="H757" s="10"/>
     </row>
-    <row r="758" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A758" s="5">
         <v>41269</v>
       </c>
@@ -21212,7 +21214,7 @@
       </c>
       <c r="H758" s="10"/>
     </row>
-    <row r="759" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A759" s="5">
         <v>41269</v>
       </c>
@@ -21227,7 +21229,7 @@
       </c>
       <c r="H759" s="10"/>
     </row>
-    <row r="760" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A760" s="5">
         <v>41269</v>
       </c>
@@ -21242,7 +21244,7 @@
       </c>
       <c r="H760" s="10"/>
     </row>
-    <row r="761" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A761" s="5">
         <v>41269</v>
       </c>
@@ -21264,7 +21266,7 @@
       </c>
       <c r="H761" s="10"/>
     </row>
-    <row r="762" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A762" s="5">
         <v>41307</v>
       </c>
@@ -21279,7 +21281,7 @@
       </c>
       <c r="H762" s="10"/>
     </row>
-    <row r="763" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A763" s="5">
         <v>41307</v>
       </c>
@@ -21294,7 +21296,7 @@
       </c>
       <c r="H763" s="10"/>
     </row>
-    <row r="764" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A764" s="5">
         <v>41307</v>
       </c>
@@ -21309,7 +21311,7 @@
       </c>
       <c r="H764" s="10"/>
     </row>
-    <row r="765" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A765" s="5">
         <v>41307</v>
       </c>
@@ -21324,7 +21326,7 @@
       </c>
       <c r="H765" s="10"/>
     </row>
-    <row r="766" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A766" s="5">
         <v>41307</v>
       </c>
@@ -21339,7 +21341,7 @@
       </c>
       <c r="H766" s="10"/>
     </row>
-    <row r="767" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A767" s="5">
         <v>41307</v>
       </c>
@@ -21354,7 +21356,7 @@
       </c>
       <c r="H767" s="10"/>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A768" s="5">
         <v>41307</v>
       </c>
@@ -21369,7 +21371,7 @@
       </c>
       <c r="H768" s="10"/>
     </row>
-    <row r="769" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A769" s="5">
         <v>41307</v>
       </c>
@@ -21384,7 +21386,7 @@
       </c>
       <c r="H769" s="10"/>
     </row>
-    <row r="770" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A770" s="5">
         <v>41306</v>
       </c>
@@ -21399,7 +21401,7 @@
       </c>
       <c r="H770" s="10"/>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A771" s="5">
         <v>41306</v>
       </c>
@@ -21414,7 +21416,7 @@
       </c>
       <c r="H771" s="10"/>
     </row>
-    <row r="772" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A772" s="5">
         <v>41306</v>
       </c>
@@ -21429,7 +21431,7 @@
       </c>
       <c r="H772" s="10"/>
     </row>
-    <row r="773" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A773" s="5">
         <v>41306</v>
       </c>
@@ -21444,7 +21446,7 @@
       </c>
       <c r="H773" s="10"/>
     </row>
-    <row r="774" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A774" s="5">
         <v>41306</v>
       </c>
@@ -21459,7 +21461,7 @@
       </c>
       <c r="H774" s="10"/>
     </row>
-    <row r="775" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A775" s="5">
         <v>41306</v>
       </c>
@@ -21474,7 +21476,7 @@
       </c>
       <c r="H775" s="10"/>
     </row>
-    <row r="776" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A776" s="5">
         <v>41305</v>
       </c>
@@ -21489,7 +21491,7 @@
       </c>
       <c r="H776" s="10"/>
     </row>
-    <row r="777" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A777" s="5">
         <v>41305</v>
       </c>
@@ -21504,7 +21506,7 @@
       </c>
       <c r="H777" s="10"/>
     </row>
-    <row r="778" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A778" s="5">
         <v>41305</v>
       </c>
@@ -21519,7 +21521,7 @@
       </c>
       <c r="H778" s="10"/>
     </row>
-    <row r="779" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A779" s="5">
         <v>41305</v>
       </c>
@@ -21534,7 +21536,7 @@
       </c>
       <c r="H779" s="10"/>
     </row>
-    <row r="780" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A780" s="5">
         <v>41305</v>
       </c>
@@ -21549,7 +21551,7 @@
       </c>
       <c r="H780" s="10"/>
     </row>
-    <row r="781" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A781" s="5">
         <v>41305</v>
       </c>
@@ -21564,7 +21566,7 @@
       </c>
       <c r="H781" s="10"/>
     </row>
-    <row r="782" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A782" s="5">
         <v>41334</v>
       </c>
@@ -21579,7 +21581,7 @@
       </c>
       <c r="H782" s="10"/>
     </row>
-    <row r="783" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A783" s="5">
         <v>41334</v>
       </c>
@@ -21594,7 +21596,7 @@
       </c>
       <c r="H783" s="10"/>
     </row>
-    <row r="784" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A784" s="5">
         <v>41334</v>
       </c>
@@ -21609,7 +21611,7 @@
       </c>
       <c r="H784" s="10"/>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A785" s="5">
         <v>41334</v>
       </c>
@@ -21624,7 +21626,7 @@
       </c>
       <c r="H785" s="10"/>
     </row>
-    <row r="786" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A786" s="5">
         <v>41334</v>
       </c>
@@ -21639,7 +21641,7 @@
       </c>
       <c r="H786" s="10"/>
     </row>
-    <row r="787" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A787" s="5">
         <v>41334</v>
       </c>
@@ -21654,7 +21656,7 @@
       </c>
       <c r="H787" s="10"/>
     </row>
-    <row r="788" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A788" s="5">
         <v>41334</v>
       </c>
@@ -21669,7 +21671,7 @@
       </c>
       <c r="H788" s="10"/>
     </row>
-    <row r="789" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A789" s="5">
         <v>41334</v>
       </c>
@@ -21684,7 +21686,7 @@
       </c>
       <c r="H789" s="10"/>
     </row>
-    <row r="790" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A790" s="5">
         <v>41333</v>
       </c>
@@ -21699,7 +21701,7 @@
       </c>
       <c r="H790" s="10"/>
     </row>
-    <row r="791" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A791" s="5">
         <v>41333</v>
       </c>
@@ -21714,7 +21716,7 @@
       </c>
       <c r="H791" s="10"/>
     </row>
-    <row r="792" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A792" s="5">
         <v>41333</v>
       </c>
@@ -21729,7 +21731,7 @@
       </c>
       <c r="H792" s="10"/>
     </row>
-    <row r="793" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A793" s="5">
         <v>41333</v>
       </c>
@@ -21744,7 +21746,7 @@
       </c>
       <c r="H793" s="10"/>
     </row>
-    <row r="794" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A794" s="5">
         <v>41333</v>
       </c>
@@ -21759,7 +21761,7 @@
       </c>
       <c r="H794" s="10"/>
     </row>
-    <row r="795" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A795" s="5">
         <v>41333</v>
       </c>
@@ -21774,7 +21776,7 @@
       </c>
       <c r="H795" s="10"/>
     </row>
-    <row r="796" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A796" s="5">
         <v>41332</v>
       </c>
@@ -21789,7 +21791,7 @@
       </c>
       <c r="H796" s="10"/>
     </row>
-    <row r="797" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A797" s="5">
         <v>41332</v>
       </c>
@@ -21804,7 +21806,7 @@
       </c>
       <c r="H797" s="10"/>
     </row>
-    <row r="798" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A798" s="5">
         <v>41332</v>
       </c>
@@ -21819,7 +21821,7 @@
       </c>
       <c r="H798" s="10"/>
     </row>
-    <row r="799" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A799" s="5">
         <v>41332</v>
       </c>
@@ -21834,7 +21836,7 @@
       </c>
       <c r="H799" s="10"/>
     </row>
-    <row r="800" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A800" s="5">
         <v>41332</v>
       </c>
@@ -21849,7 +21851,7 @@
       </c>
       <c r="H800" s="10"/>
     </row>
-    <row r="801" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A801" s="5">
         <v>41332</v>
       </c>
@@ -21864,7 +21866,7 @@
       </c>
       <c r="H801" s="10"/>
     </row>
-    <row r="802" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A802" s="5">
         <v>41360</v>
       </c>
@@ -21879,7 +21881,7 @@
       </c>
       <c r="H802" s="10"/>
     </row>
-    <row r="803" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A803" s="5">
         <v>41360</v>
       </c>
@@ -21894,7 +21896,7 @@
       </c>
       <c r="H803" s="10"/>
     </row>
-    <row r="804" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A804" s="5">
         <v>41360</v>
       </c>
@@ -21909,7 +21911,7 @@
       </c>
       <c r="H804" s="10"/>
     </row>
-    <row r="805" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A805" s="5">
         <v>41360</v>
       </c>
@@ -21924,7 +21926,7 @@
       </c>
       <c r="H805" s="10"/>
     </row>
-    <row r="806" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A806" s="5">
         <v>41360</v>
       </c>
@@ -21939,7 +21941,7 @@
       </c>
       <c r="H806" s="10"/>
     </row>
-    <row r="807" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A807" s="5">
         <v>41360</v>
       </c>
@@ -21954,7 +21956,7 @@
       </c>
       <c r="H807" s="10"/>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A808" s="5">
         <v>41360</v>
       </c>
@@ -21969,7 +21971,7 @@
       </c>
       <c r="H808" s="10"/>
     </row>
-    <row r="809" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A809" s="5">
         <v>41360</v>
       </c>
@@ -21984,7 +21986,7 @@
       </c>
       <c r="H809" s="10"/>
     </row>
-    <row r="810" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A810" s="5">
         <v>41362</v>
       </c>
@@ -21999,7 +22001,7 @@
       </c>
       <c r="H810" s="10"/>
     </row>
-    <row r="811" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A811" s="5">
         <v>41362</v>
       </c>
@@ -22014,7 +22016,7 @@
       </c>
       <c r="H811" s="10"/>
     </row>
-    <row r="812" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A812" s="5">
         <v>41362</v>
       </c>
@@ -22029,7 +22031,7 @@
       </c>
       <c r="H812" s="10"/>
     </row>
-    <row r="813" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A813" s="5">
         <v>41362</v>
       </c>
@@ -22044,7 +22046,7 @@
       </c>
       <c r="H813" s="10"/>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A814" s="5">
         <v>41362</v>
       </c>
@@ -22059,7 +22061,7 @@
       </c>
       <c r="H814" s="10"/>
     </row>
-    <row r="815" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A815" s="5">
         <v>41362</v>
       </c>
@@ -22074,7 +22076,7 @@
       </c>
       <c r="H815" s="10"/>
     </row>
-    <row r="816" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A816" s="5">
         <v>41361</v>
       </c>
@@ -22089,7 +22091,7 @@
       </c>
       <c r="H816" s="10"/>
     </row>
-    <row r="817" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A817" s="5">
         <v>41361</v>
       </c>
@@ -22104,7 +22106,7 @@
       </c>
       <c r="H817" s="10"/>
     </row>
-    <row r="818" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A818" s="5">
         <v>41361</v>
       </c>
@@ -22119,7 +22121,7 @@
       </c>
       <c r="H818" s="10"/>
     </row>
-    <row r="819" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A819" s="5">
         <v>41361</v>
       </c>
@@ -22134,7 +22136,7 @@
       </c>
       <c r="H819" s="10"/>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A820" s="5">
         <v>41361</v>
       </c>
@@ -22149,7 +22151,7 @@
       </c>
       <c r="H820" s="10"/>
     </row>
-    <row r="821" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A821" s="5">
         <v>41361</v>
       </c>
@@ -22164,7 +22166,7 @@
       </c>
       <c r="H821" s="10"/>
     </row>
-    <row r="822" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A822" s="5">
         <v>41569</v>
       </c>
@@ -22178,7 +22180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A823" s="5">
         <v>41569</v>
       </c>
@@ -22192,7 +22194,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A824" s="5">
         <v>41569</v>
       </c>
@@ -22206,7 +22208,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A825" s="5">
         <v>41569</v>
       </c>
@@ -22220,7 +22222,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A826" s="5">
         <v>41569</v>
       </c>
@@ -22234,7 +22236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A827" s="5">
         <v>41569</v>
       </c>
@@ -22248,7 +22250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="828" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A828" s="5">
         <v>41569</v>
       </c>
@@ -22262,7 +22264,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A829" s="5">
         <v>41569</v>
       </c>
@@ -22276,7 +22278,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A830" s="5">
         <v>41571</v>
       </c>
@@ -22290,7 +22292,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="831" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A831" s="5">
         <v>41571</v>
       </c>
@@ -22304,7 +22306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A832" s="5">
         <v>41571</v>
       </c>
@@ -22318,7 +22320,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A833" s="5">
         <v>41571</v>
       </c>
@@ -22332,7 +22334,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A834" s="5">
         <v>41571</v>
       </c>
@@ -22346,7 +22348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A835" s="5">
         <v>41571</v>
       </c>
@@ -22360,7 +22362,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A836" s="5">
         <v>41570</v>
       </c>
@@ -22374,7 +22376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="837" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A837" s="5">
         <v>41570</v>
       </c>
@@ -22388,7 +22390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A838" s="5">
         <v>41570</v>
       </c>
@@ -22402,7 +22404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A839" s="5">
         <v>41570</v>
       </c>
@@ -22416,7 +22418,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A840" s="5">
         <v>41570</v>
       </c>
@@ -22430,7 +22432,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A841" s="5">
         <v>41570</v>
       </c>
@@ -22444,7 +22446,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="842" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A842" s="32">
         <v>41599</v>
       </c>
@@ -22462,7 +22464,7 @@
       <c r="G842" s="30"/>
       <c r="H842" s="29"/>
     </row>
-    <row r="843" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A843" s="32">
         <v>41599</v>
       </c>
@@ -22480,7 +22482,7 @@
       <c r="G843" s="30"/>
       <c r="H843" s="29"/>
     </row>
-    <row r="844" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A844" s="32">
         <v>41599</v>
       </c>
@@ -22498,7 +22500,7 @@
       <c r="G844" s="30"/>
       <c r="H844" s="29"/>
     </row>
-    <row r="845" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A845" s="32">
         <v>41599</v>
       </c>
@@ -22516,7 +22518,7 @@
       <c r="G845" s="30"/>
       <c r="H845" s="29"/>
     </row>
-    <row r="846" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A846" s="32">
         <v>41599</v>
       </c>
@@ -22534,7 +22536,7 @@
       <c r="G846" s="30"/>
       <c r="H846" s="29"/>
     </row>
-    <row r="847" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A847" s="32">
         <v>41599</v>
       </c>
@@ -22552,7 +22554,7 @@
       <c r="G847" s="30"/>
       <c r="H847" s="29"/>
     </row>
-    <row r="848" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A848" s="32">
         <v>41599</v>
       </c>
@@ -22570,7 +22572,7 @@
       <c r="G848" s="30"/>
       <c r="H848" s="29"/>
     </row>
-    <row r="849" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A849" s="32">
         <v>41599</v>
       </c>
@@ -22588,7 +22590,7 @@
       <c r="G849" s="30"/>
       <c r="H849" s="29"/>
     </row>
-    <row r="850" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A850" s="32">
         <v>41597</v>
       </c>
@@ -22606,7 +22608,7 @@
       <c r="G850" s="30"/>
       <c r="H850" s="29"/>
     </row>
-    <row r="851" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A851" s="32">
         <v>41597</v>
       </c>
@@ -22624,7 +22626,7 @@
       <c r="G851" s="30"/>
       <c r="H851" s="29"/>
     </row>
-    <row r="852" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A852" s="32">
         <v>41597</v>
       </c>
@@ -22642,7 +22644,7 @@
       <c r="G852" s="30"/>
       <c r="H852" s="29"/>
     </row>
-    <row r="853" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A853" s="32">
         <v>41597</v>
       </c>
@@ -22660,7 +22662,7 @@
       <c r="G853" s="30"/>
       <c r="H853" s="29"/>
     </row>
-    <row r="854" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A854" s="32">
         <v>41597</v>
       </c>
@@ -22678,7 +22680,7 @@
       <c r="G854" s="30"/>
       <c r="H854" s="29"/>
     </row>
-    <row r="855" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A855" s="32">
         <v>41597</v>
       </c>
@@ -22696,7 +22698,7 @@
       <c r="G855" s="30"/>
       <c r="H855" s="29"/>
     </row>
-    <row r="856" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A856" s="32">
         <v>41598</v>
       </c>
@@ -22714,7 +22716,7 @@
       <c r="G856" s="30"/>
       <c r="H856" s="29"/>
     </row>
-    <row r="857" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A857" s="32">
         <v>41598</v>
       </c>
@@ -22732,7 +22734,7 @@
       <c r="G857" s="30"/>
       <c r="H857" s="29"/>
     </row>
-    <row r="858" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A858" s="32">
         <v>41598</v>
       </c>
@@ -22750,7 +22752,7 @@
       <c r="G858" s="30"/>
       <c r="H858" s="29"/>
     </row>
-    <row r="859" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A859" s="32">
         <v>41598</v>
       </c>
@@ -22768,7 +22770,7 @@
       <c r="G859" s="30"/>
       <c r="H859" s="29"/>
     </row>
-    <row r="860" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A860" s="32">
         <v>41598</v>
       </c>
@@ -22786,7 +22788,7 @@
       <c r="G860" s="30"/>
       <c r="H860" s="29"/>
     </row>
-    <row r="861" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A861" s="32">
         <v>41598</v>
       </c>
@@ -22804,7 +22806,7 @@
       <c r="G861" s="30"/>
       <c r="H861" s="29"/>
     </row>
-    <row r="862" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A862" s="32">
         <v>41621</v>
       </c>
@@ -22822,7 +22824,7 @@
       <c r="G862" s="30"/>
       <c r="H862" s="29"/>
     </row>
-    <row r="863" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A863" s="32">
         <v>41621</v>
       </c>
@@ -22840,7 +22842,7 @@
       <c r="G863" s="30"/>
       <c r="H863" s="29"/>
     </row>
-    <row r="864" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A864" s="32">
         <v>41621</v>
       </c>
@@ -22858,7 +22860,7 @@
       <c r="G864" s="30"/>
       <c r="H864" s="29"/>
     </row>
-    <row r="865" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A865" s="32">
         <v>41621</v>
       </c>
@@ -22876,7 +22878,7 @@
       <c r="G865" s="30"/>
       <c r="H865" s="29"/>
     </row>
-    <row r="866" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A866" s="32">
         <v>41621</v>
       </c>
@@ -22894,7 +22896,7 @@
       <c r="G866" s="30"/>
       <c r="H866" s="29"/>
     </row>
-    <row r="867" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A867" s="32">
         <v>41621</v>
       </c>
@@ -22912,7 +22914,7 @@
       <c r="G867" s="30"/>
       <c r="H867" s="29"/>
     </row>
-    <row r="868" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A868" s="32">
         <v>41621</v>
       </c>
@@ -22930,7 +22932,7 @@
       <c r="G868" s="30"/>
       <c r="H868" s="29"/>
     </row>
-    <row r="869" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A869" s="32">
         <v>41621</v>
       </c>
@@ -22948,7 +22950,7 @@
       <c r="G869" s="30"/>
       <c r="H869" s="29"/>
     </row>
-    <row r="870" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A870" s="32">
         <v>41622</v>
       </c>
@@ -22966,7 +22968,7 @@
       <c r="G870" s="30"/>
       <c r="H870" s="29"/>
     </row>
-    <row r="871" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A871" s="32">
         <v>41622</v>
       </c>
@@ -22984,7 +22986,7 @@
       <c r="G871" s="30"/>
       <c r="H871" s="29"/>
     </row>
-    <row r="872" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A872" s="32">
         <v>41622</v>
       </c>
@@ -23002,7 +23004,7 @@
       <c r="G872" s="30"/>
       <c r="H872" s="29"/>
     </row>
-    <row r="873" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A873" s="32">
         <v>41622</v>
       </c>
@@ -23020,7 +23022,7 @@
       <c r="G873" s="30"/>
       <c r="H873" s="29"/>
     </row>
-    <row r="874" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A874" s="32">
         <v>41622</v>
       </c>
@@ -23038,7 +23040,7 @@
       <c r="G874" s="30"/>
       <c r="H874" s="29"/>
     </row>
-    <row r="875" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A875" s="32">
         <v>41622</v>
       </c>
@@ -23056,7 +23058,7 @@
       <c r="G875" s="30"/>
       <c r="H875" s="29"/>
     </row>
-    <row r="876" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A876" s="32">
         <v>41620</v>
       </c>
@@ -23074,7 +23076,7 @@
       <c r="G876" s="30"/>
       <c r="H876" s="29"/>
     </row>
-    <row r="877" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A877" s="32">
         <v>41620</v>
       </c>
@@ -23092,7 +23094,7 @@
       <c r="G877" s="30"/>
       <c r="H877" s="29"/>
     </row>
-    <row r="878" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A878" s="32">
         <v>41620</v>
       </c>
@@ -23110,7 +23112,7 @@
       <c r="G878" s="30"/>
       <c r="H878" s="29"/>
     </row>
-    <row r="879" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A879" s="32">
         <v>41620</v>
       </c>
@@ -23128,7 +23130,7 @@
       <c r="G879" s="30"/>
       <c r="H879" s="29"/>
     </row>
-    <row r="880" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A880" s="32">
         <v>41620</v>
       </c>
@@ -23146,7 +23148,7 @@
       <c r="G880" s="30"/>
       <c r="H880" s="29"/>
     </row>
-    <row r="881" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A881" s="32">
         <v>41620</v>
       </c>
@@ -23164,7 +23166,7 @@
       <c r="G881" s="30"/>
       <c r="H881" s="29"/>
     </row>
-    <row r="882" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A882" s="32">
         <v>41662</v>
       </c>
@@ -23181,7 +23183,7 @@
       <c r="F882" s="33"/>
       <c r="G882" s="33"/>
     </row>
-    <row r="883" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A883" s="32">
         <v>41662</v>
       </c>
@@ -23198,7 +23200,7 @@
       <c r="F883" s="33"/>
       <c r="G883" s="33"/>
     </row>
-    <row r="884" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A884" s="32">
         <v>41662</v>
       </c>
@@ -23215,7 +23217,7 @@
       <c r="F884" s="33"/>
       <c r="G884" s="33"/>
     </row>
-    <row r="885" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A885" s="32">
         <v>41662</v>
       </c>
@@ -23232,7 +23234,7 @@
       <c r="F885" s="33"/>
       <c r="G885" s="33"/>
     </row>
-    <row r="886" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A886" s="32">
         <v>41662</v>
       </c>
@@ -23249,7 +23251,7 @@
       <c r="F886" s="33"/>
       <c r="G886" s="33"/>
     </row>
-    <row r="887" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A887" s="32">
         <v>41662</v>
       </c>
@@ -23266,7 +23268,7 @@
       <c r="F887" s="33"/>
       <c r="G887" s="33"/>
     </row>
-    <row r="888" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A888" s="32">
         <v>41662</v>
       </c>
@@ -23283,7 +23285,7 @@
       <c r="F888" s="33"/>
       <c r="G888" s="33"/>
     </row>
-    <row r="889" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A889" s="32">
         <v>41662</v>
       </c>
@@ -23300,7 +23302,7 @@
       <c r="F889" s="33"/>
       <c r="G889" s="33"/>
     </row>
-    <row r="890" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A890" s="32">
         <v>41661</v>
       </c>
@@ -23317,7 +23319,7 @@
       <c r="F890" s="33"/>
       <c r="G890" s="33"/>
     </row>
-    <row r="891" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A891" s="32">
         <v>41661</v>
       </c>
@@ -23334,7 +23336,7 @@
       <c r="F891" s="33"/>
       <c r="G891" s="33"/>
     </row>
-    <row r="892" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A892" s="32">
         <v>41661</v>
       </c>
@@ -23351,7 +23353,7 @@
       <c r="F892" s="33"/>
       <c r="G892" s="33"/>
     </row>
-    <row r="893" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A893" s="32">
         <v>41661</v>
       </c>
@@ -23368,7 +23370,7 @@
       <c r="F893" s="33"/>
       <c r="G893" s="33"/>
     </row>
-    <row r="894" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A894" s="32">
         <v>41661</v>
       </c>
@@ -23385,7 +23387,7 @@
       <c r="F894" s="33"/>
       <c r="G894" s="33"/>
     </row>
-    <row r="895" spans="1:8" s="31" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:8" s="31" customFormat="1" ht="12" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="32">
         <v>41661</v>
       </c>
@@ -23402,7 +23404,7 @@
       <c r="F895" s="33"/>
       <c r="G895" s="33"/>
     </row>
-    <row r="896" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:8" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A896" s="32">
         <v>41660</v>
       </c>
@@ -23419,7 +23421,7 @@
       <c r="F896" s="33"/>
       <c r="G896" s="33"/>
     </row>
-    <row r="897" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:7" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A897" s="32">
         <v>41660</v>
       </c>
@@ -23436,7 +23438,7 @@
       <c r="F897" s="33"/>
       <c r="G897" s="33"/>
     </row>
-    <row r="898" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:7" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A898" s="32">
         <v>41660</v>
       </c>
@@ -23453,7 +23455,7 @@
       <c r="F898" s="33"/>
       <c r="G898" s="33"/>
     </row>
-    <row r="899" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:7" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A899" s="32">
         <v>41660</v>
       </c>
@@ -23470,7 +23472,7 @@
       <c r="F899" s="33"/>
       <c r="G899" s="33"/>
     </row>
-    <row r="900" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:7" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A900" s="32">
         <v>41660</v>
       </c>
@@ -23487,7 +23489,7 @@
       <c r="F900" s="33"/>
       <c r="G900" s="33"/>
     </row>
-    <row r="901" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:7" s="31" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A901" s="32">
         <v>41660</v>
       </c>
@@ -23504,7 +23506,7 @@
       <c r="F901" s="33"/>
       <c r="G901" s="33"/>
     </row>
-    <row r="902" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A902" s="32">
         <v>41689</v>
       </c>
@@ -23521,7 +23523,7 @@
       <c r="F902" s="33"/>
       <c r="G902" s="33"/>
     </row>
-    <row r="903" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A903" s="32">
         <v>41689</v>
       </c>
@@ -23538,7 +23540,7 @@
       <c r="F903" s="33"/>
       <c r="G903" s="33"/>
     </row>
-    <row r="904" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A904" s="32">
         <v>41689</v>
       </c>
@@ -23555,7 +23557,7 @@
       <c r="F904" s="33"/>
       <c r="G904" s="33"/>
     </row>
-    <row r="905" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A905" s="32">
         <v>41689</v>
       </c>
@@ -23572,7 +23574,7 @@
       <c r="F905" s="33"/>
       <c r="G905" s="33"/>
     </row>
-    <row r="906" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A906" s="32">
         <v>41689</v>
       </c>
@@ -23589,7 +23591,7 @@
       <c r="F906" s="33"/>
       <c r="G906" s="33"/>
     </row>
-    <row r="907" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A907" s="32">
         <v>41689</v>
       </c>
@@ -23606,7 +23608,7 @@
       <c r="F907" s="33"/>
       <c r="G907" s="33"/>
     </row>
-    <row r="908" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A908" s="32">
         <v>41689</v>
       </c>
@@ -23623,7 +23625,7 @@
       <c r="F908" s="33"/>
       <c r="G908" s="33"/>
     </row>
-    <row r="909" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A909" s="32">
         <v>41689</v>
       </c>
@@ -23640,7 +23642,7 @@
       <c r="F909" s="33"/>
       <c r="G909" s="33"/>
     </row>
-    <row r="910" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A910" s="32">
         <v>41688</v>
       </c>
@@ -23657,7 +23659,7 @@
       <c r="F910" s="33"/>
       <c r="G910" s="33"/>
     </row>
-    <row r="911" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A911" s="32">
         <v>41688</v>
       </c>
@@ -23674,7 +23676,7 @@
       <c r="F911" s="33"/>
       <c r="G911" s="33"/>
     </row>
-    <row r="912" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A912" s="32">
         <v>41688</v>
       </c>
@@ -23691,7 +23693,7 @@
       <c r="F912" s="33"/>
       <c r="G912" s="33"/>
     </row>
-    <row r="913" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A913" s="32">
         <v>41688</v>
       </c>
@@ -23708,7 +23710,7 @@
       <c r="F913" s="33"/>
       <c r="G913" s="33"/>
     </row>
-    <row r="914" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A914" s="32">
         <v>41688</v>
       </c>
@@ -23725,7 +23727,7 @@
       <c r="F914" s="33"/>
       <c r="G914" s="33"/>
     </row>
-    <row r="915" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A915" s="32">
         <v>41688</v>
       </c>
@@ -23742,7 +23744,7 @@
       <c r="F915" s="33"/>
       <c r="G915" s="33"/>
     </row>
-    <row r="916" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A916" s="32">
         <v>41684</v>
       </c>
@@ -23759,7 +23761,7 @@
       <c r="F916" s="33"/>
       <c r="G916" s="33"/>
     </row>
-    <row r="917" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A917" s="32">
         <v>41684</v>
       </c>
@@ -23776,7 +23778,7 @@
       <c r="F917" s="33"/>
       <c r="G917" s="33"/>
     </row>
-    <row r="918" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A918" s="32">
         <v>41684</v>
       </c>
@@ -23793,7 +23795,7 @@
       <c r="F918" s="33"/>
       <c r="G918" s="33"/>
     </row>
-    <row r="919" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A919" s="32">
         <v>41684</v>
       </c>
@@ -23810,7 +23812,7 @@
       <c r="F919" s="33"/>
       <c r="G919" s="33"/>
     </row>
-    <row r="920" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A920" s="32">
         <v>41684</v>
       </c>
@@ -23827,7 +23829,7 @@
       <c r="F920" s="33"/>
       <c r="G920" s="33"/>
     </row>
-    <row r="921" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A921" s="32">
         <v>41684</v>
       </c>
@@ -23844,7 +23846,7 @@
       <c r="F921" s="33"/>
       <c r="G921" s="33"/>
     </row>
-    <row r="922" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A922" s="32">
         <v>41708</v>
       </c>
@@ -23858,7 +23860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="923" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A923" s="32">
         <v>41708</v>
       </c>
@@ -23872,7 +23874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="924" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A924" s="32">
         <v>41708</v>
       </c>
@@ -23886,7 +23888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="925" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A925" s="32">
         <v>41708</v>
       </c>
@@ -23900,7 +23902,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="926" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A926" s="32">
         <v>41708</v>
       </c>
@@ -23914,7 +23916,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="927" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A927" s="32">
         <v>41708</v>
       </c>
@@ -23928,7 +23930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="928" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A928" s="32">
         <v>41708</v>
       </c>
@@ -23942,7 +23944,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A929" s="32">
         <v>41708</v>
       </c>
@@ -23956,7 +23958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A930" s="32">
         <v>41710</v>
       </c>
@@ -23970,7 +23972,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A931" s="32">
         <v>41710</v>
       </c>
@@ -23984,7 +23986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A932" s="32">
         <v>41710</v>
       </c>
@@ -23998,7 +24000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A933" s="32">
         <v>41710</v>
       </c>
@@ -24012,7 +24014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A934" s="32">
         <v>41710</v>
       </c>
@@ -24026,7 +24028,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A935" s="32">
         <v>41710</v>
       </c>
@@ -24040,7 +24042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A936" s="32">
         <v>41709</v>
       </c>
@@ -24054,7 +24056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A937" s="32">
         <v>41709</v>
       </c>
@@ -24068,7 +24070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A938" s="32">
         <v>41709</v>
       </c>
@@ -24082,7 +24084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A939" s="32">
         <v>41709</v>
       </c>
@@ -24096,7 +24098,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A940" s="32">
         <v>41709</v>
       </c>
@@ -24110,7 +24112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A941" s="32">
         <v>41709</v>
       </c>
@@ -24125,12 +24127,34 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H941" xr:uid="{0FE13FF9-13E3-46D5-B0E3-8295539AD10E}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Como"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005CC85F8F0AAFD34E9935A83670E1BFDD" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="225fbf51eead02230b7cb6b422d1d47c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="44866117-36c4-4052-978c-d437dbbc0622" xmlns:ns3="8e7f466b-5067-4f53-871f-fd4c7550b649" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c6c2639238ed1e6eafbdbabbc347ecb3" ns2:_="" ns3:_="">
     <xsd:import namespace="44866117-36c4-4052-978c-d437dbbc0622"/>
@@ -24313,29 +24337,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088FB489-FD7D-455E-9C6C-CA120C8647EA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB3E79A-A616-4505-92AB-E0B5FE55A0E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{446653DD-4B13-4121-9E7F-B37176D035E1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{446653DD-4B13-4121-9E7F-B37176D035E1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EB3E79A-A616-4505-92AB-E0B5FE55A0E7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{088FB489-FD7D-455E-9C6C-CA120C8647EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="44866117-36c4-4052-978c-d437dbbc0622"/>
+    <ds:schemaRef ds:uri="8e7f466b-5067-4f53-871f-fd4c7550b649"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>